--- a/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_17_27.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_17_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1124876.265455484</v>
+        <v>1123142.784341841</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6049179.212228706</v>
+        <v>6049179.212228707</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673425</v>
+        <v>603248.4937673426</v>
       </c>
     </row>
     <row r="9">
@@ -1370,25 +1370,25 @@
         <v>303.3026304363736</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>285.8416805439006</v>
       </c>
       <c r="D11" t="n">
-        <v>275.251830393576</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>302.4991588451548</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>333.0902356170841</v>
       </c>
       <c r="H11" t="n">
         <v>231.5596978048557</v>
       </c>
       <c r="I11" t="n">
-        <v>23.81896975173338</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>66.21019719500376</v>
+        <v>66.21019719500374</v>
       </c>
       <c r="T11" t="n">
         <v>131.4895384249673</v>
@@ -1430,13 +1430,13 @@
         <v>248.3210472430279</v>
       </c>
       <c r="W11" t="n">
-        <v>203.9531620684404</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>290.299889451362</v>
       </c>
       <c r="Y11" t="n">
-        <v>306.8067274289466</v>
+        <v>203.0980428755049</v>
       </c>
     </row>
     <row r="12">
@@ -1452,7 +1452,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>68.01385433753177</v>
       </c>
       <c r="E12" t="n">
         <v>157.6450804554009</v>
@@ -1461,13 +1461,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>56.42418423419249</v>
+        <v>68.73595855062054</v>
       </c>
       <c r="H12" t="n">
-        <v>18.43211025672104</v>
+        <v>97.86332148382802</v>
       </c>
       <c r="I12" t="n">
-        <v>12.31177431642756</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>7.763751642754556</v>
+        <v>7.763751642754571</v>
       </c>
       <c r="S12" t="n">
         <v>144.0419631757948</v>
@@ -1503,10 +1503,10 @@
         <v>194.1665539401884</v>
       </c>
       <c r="U12" t="n">
-        <v>146.4122681103211</v>
+        <v>225.843479337428</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>153.3693759223183</v>
       </c>
       <c r="W12" t="n">
         <v>251.6949831609196</v>
@@ -1528,25 +1528,25 @@
         <v>100.4007689548303</v>
       </c>
       <c r="C13" t="n">
-        <v>87.81560987152086</v>
+        <v>87.81560987152085</v>
       </c>
       <c r="D13" t="n">
-        <v>69.18426179110538</v>
+        <v>69.18426179110537</v>
       </c>
       <c r="E13" t="n">
-        <v>67.0027514194622</v>
+        <v>67.00275141946219</v>
       </c>
       <c r="F13" t="n">
-        <v>65.98983679582427</v>
+        <v>65.98983679582426</v>
       </c>
       <c r="G13" t="n">
-        <v>87.31217688571731</v>
+        <v>87.31217688571729</v>
       </c>
       <c r="H13" t="n">
         <v>71.70374093278244</v>
       </c>
       <c r="I13" t="n">
-        <v>38.5007924223436</v>
+        <v>38.50079242234359</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1607,10 +1607,10 @@
         <v>303.3026304363736</v>
       </c>
       <c r="C14" t="n">
-        <v>285.8416805439006</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>275.251830393576</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1619,13 +1619,13 @@
         <v>327.4448345146045</v>
       </c>
       <c r="G14" t="n">
-        <v>333.0902356170841</v>
+        <v>333.0902356170842</v>
       </c>
       <c r="H14" t="n">
-        <v>91.11845342310727</v>
+        <v>231.5596978048558</v>
       </c>
       <c r="I14" t="n">
-        <v>23.81896975173338</v>
+        <v>23.81896975173341</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>66.21019719500376</v>
       </c>
       <c r="T14" t="n">
-        <v>131.4895384249673</v>
+        <v>131.4895384249674</v>
       </c>
       <c r="U14" t="n">
-        <v>171.691938427054</v>
+        <v>17.60918920896003</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>248.321047243028</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>290.299889451362</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>306.8067274289466</v>
+        <v>306.8067274289467</v>
       </c>
     </row>
     <row r="15">
@@ -1698,10 +1698,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>76.49971019337475</v>
+        <v>56.42418423419252</v>
       </c>
       <c r="H15" t="n">
-        <v>18.43211025672104</v>
+        <v>97.863321483828</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1734,10 +1734,10 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>64.61075194868778</v>
+        <v>84.68627790787089</v>
       </c>
       <c r="T15" t="n">
-        <v>194.1665539401884</v>
+        <v>114.7353427130815</v>
       </c>
       <c r="U15" t="n">
         <v>225.843479337428</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>100.4007689548303</v>
+        <v>100.4007689548304</v>
       </c>
       <c r="C16" t="n">
-        <v>87.81560987152086</v>
+        <v>87.81560987152089</v>
       </c>
       <c r="D16" t="n">
-        <v>69.18426179110538</v>
+        <v>69.18426179110541</v>
       </c>
       <c r="E16" t="n">
-        <v>67.0027514194622</v>
+        <v>67.00275141946223</v>
       </c>
       <c r="F16" t="n">
-        <v>65.98983679582427</v>
+        <v>65.9898367958243</v>
       </c>
       <c r="G16" t="n">
-        <v>87.31217688571731</v>
+        <v>87.31217688571734</v>
       </c>
       <c r="H16" t="n">
-        <v>71.70374093278244</v>
+        <v>71.70374093278247</v>
       </c>
       <c r="I16" t="n">
-        <v>38.5007924223436</v>
+        <v>38.50079242234362</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>41.76594105089781</v>
+        <v>41.76594105089783</v>
       </c>
       <c r="S16" t="n">
         <v>122.8432739200354</v>
@@ -1819,19 +1819,19 @@
         <v>143.1837610607363</v>
       </c>
       <c r="U16" t="n">
-        <v>206.8197676978038</v>
+        <v>206.8197676978039</v>
       </c>
       <c r="V16" t="n">
-        <v>172.706432096721</v>
+        <v>172.7064320967211</v>
       </c>
       <c r="W16" t="n">
-        <v>207.091787109484</v>
+        <v>207.0917871094841</v>
       </c>
       <c r="X16" t="n">
         <v>146.2784441619302</v>
       </c>
       <c r="Y16" t="n">
-        <v>139.1534421249878</v>
+        <v>139.1534421249879</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>223.8714192092666</v>
+        <v>223.8714192092667</v>
       </c>
       <c r="C17" t="n">
         <v>206.4104693167936</v>
@@ -1850,7 +1850,7 @@
         <v>195.820619166469</v>
       </c>
       <c r="E17" t="n">
-        <v>223.0679476180478</v>
+        <v>223.0679476180479</v>
       </c>
       <c r="F17" t="n">
         <v>248.0136232874975</v>
@@ -1859,7 +1859,7 @@
         <v>253.6590243899772</v>
       </c>
       <c r="H17" t="n">
-        <v>152.1284865777487</v>
+        <v>152.1284865777488</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1895,22 +1895,22 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>52.05832719786037</v>
+        <v>52.05832719786043</v>
       </c>
       <c r="U17" t="n">
-        <v>92.26072719994701</v>
+        <v>92.26072719994707</v>
       </c>
       <c r="V17" t="n">
-        <v>168.8898360159209</v>
+        <v>168.889836015921</v>
       </c>
       <c r="W17" t="n">
-        <v>190.378546263199</v>
+        <v>190.3785462631991</v>
       </c>
       <c r="X17" t="n">
-        <v>30.97035557456652</v>
+        <v>30.97035557456607</v>
       </c>
       <c r="Y17" t="n">
-        <v>227.3755162018396</v>
+        <v>227.3755162018397</v>
       </c>
     </row>
     <row r="18">
@@ -1923,7 +1923,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>13.84607653410177</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
@@ -1938,10 +1938,10 @@
         <v>135.8553954612995</v>
       </c>
       <c r="H18" t="n">
-        <v>97.86332148382802</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>38.16086372859612</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1971,13 +1971,13 @@
         <v>7.763751642754556</v>
       </c>
       <c r="S18" t="n">
-        <v>144.0419631757948</v>
+        <v>15.92342529472989</v>
       </c>
       <c r="T18" t="n">
         <v>194.1665539401884</v>
       </c>
       <c r="U18" t="n">
-        <v>120.5631786981525</v>
+        <v>225.843479337428</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>75.08939097628115</v>
+        <v>20.96955772772338</v>
       </c>
       <c r="C19" t="n">
-        <v>8.384398644413864</v>
+        <v>8.38439864441392</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2014,13 +2014,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>7.880965658610313</v>
+        <v>166.7433881128243</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>151.1349521598894</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>61.84730354288202</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>202.2744851471423</v>
+        <v>43.41206269292843</v>
       </c>
       <c r="T19" t="n">
-        <v>222.6149722878433</v>
+        <v>63.75254983362937</v>
       </c>
       <c r="U19" t="n">
         <v>127.3885564706969</v>
       </c>
       <c r="V19" t="n">
-        <v>93.27522086961403</v>
+        <v>93.27522086961409</v>
       </c>
       <c r="W19" t="n">
-        <v>127.660575882377</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>66.84723293482318</v>
+        <v>66.84723293482324</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>59.72223089788088</v>
       </c>
     </row>
     <row r="20">
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>223.8714192092666</v>
+        <v>223.8714192092667</v>
       </c>
       <c r="C20" t="n">
         <v>206.4104693167936</v>
@@ -2087,16 +2087,16 @@
         <v>195.820619166469</v>
       </c>
       <c r="E20" t="n">
-        <v>223.0679476180478</v>
+        <v>223.0679476180479</v>
       </c>
       <c r="F20" t="n">
-        <v>68.11530063780921</v>
+        <v>248.0136232874975</v>
       </c>
       <c r="G20" t="n">
         <v>253.6590243899772</v>
       </c>
       <c r="H20" t="n">
-        <v>152.1284865777487</v>
+        <v>152.1284865777488</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2132,22 +2132,22 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>52.05832719786037</v>
+        <v>41.04984056409291</v>
       </c>
       <c r="U20" t="n">
-        <v>92.26072719994701</v>
+        <v>92.26072719994707</v>
       </c>
       <c r="V20" t="n">
-        <v>168.8898360159209</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>190.378546263199</v>
+        <v>190.3785462631991</v>
       </c>
       <c r="X20" t="n">
         <v>210.8686782242551</v>
       </c>
       <c r="Y20" t="n">
-        <v>227.3755162018396</v>
+        <v>227.3755162018397</v>
       </c>
     </row>
     <row r="21">
@@ -2172,13 +2172,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>135.8553954612995</v>
+        <v>7.736857580234629</v>
       </c>
       <c r="H21" t="n">
-        <v>97.86332148382802</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>38.16086372859612</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2208,13 +2208,13 @@
         <v>7.763751642754556</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>144.0419631757948</v>
       </c>
       <c r="T21" t="n">
         <v>194.1665539401884</v>
       </c>
       <c r="U21" t="n">
-        <v>105.7427194197337</v>
+        <v>225.843479337428</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2236,22 +2236,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>20.96955772772333</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>8.384398644413864</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>7.880965658610313</v>
+        <v>7.88096565861037</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>121.1971522780048</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>202.2744851471423</v>
+        <v>109.9603557491308</v>
       </c>
       <c r="T22" t="n">
-        <v>63.75254983362931</v>
+        <v>63.75254983362937</v>
       </c>
       <c r="U22" t="n">
         <v>127.3885564706969</v>
       </c>
       <c r="V22" t="n">
-        <v>93.27522086961403</v>
+        <v>93.27522086961409</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>127.6605758823771</v>
       </c>
       <c r="X22" t="n">
-        <v>158.6323363595902</v>
+        <v>66.84723293482324</v>
       </c>
       <c r="Y22" t="n">
-        <v>59.72223089788082</v>
+        <v>59.72223089788088</v>
       </c>
     </row>
     <row r="23">
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>223.8714192092666</v>
+        <v>223.8714192092667</v>
       </c>
       <c r="C23" t="n">
         <v>206.4104693167936</v>
@@ -2324,7 +2324,7 @@
         <v>195.820619166469</v>
       </c>
       <c r="E23" t="n">
-        <v>223.0679476180478</v>
+        <v>223.0679476180479</v>
       </c>
       <c r="F23" t="n">
         <v>248.0136232874975</v>
@@ -2333,7 +2333,7 @@
         <v>253.6590243899772</v>
       </c>
       <c r="H23" t="n">
-        <v>152.1284865777487</v>
+        <v>152.1284865777488</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2369,22 +2369,22 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>52.05832719786037</v>
+        <v>52.05832719786043</v>
       </c>
       <c r="U23" t="n">
-        <v>92.26072719994701</v>
+        <v>92.26072719994707</v>
       </c>
       <c r="V23" t="n">
-        <v>168.8898360159209</v>
+        <v>168.889836015921</v>
       </c>
       <c r="W23" t="n">
-        <v>190.378546263199</v>
+        <v>190.3785462631991</v>
       </c>
       <c r="X23" t="n">
         <v>210.8686782242551</v>
       </c>
       <c r="Y23" t="n">
-        <v>227.3755162018396</v>
+        <v>227.3755162018397</v>
       </c>
     </row>
     <row r="24">
@@ -2442,10 +2442,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>7.763751642754556</v>
       </c>
       <c r="S24" t="n">
-        <v>67.56131437474897</v>
+        <v>59.79756273199518</v>
       </c>
       <c r="T24" t="n">
         <v>194.1665539401884</v>
@@ -2473,31 +2473,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>20.96955772772333</v>
+        <v>20.96955772772338</v>
       </c>
       <c r="C25" t="n">
-        <v>8.384398644413864</v>
+        <v>8.38439864441392</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>7.880965658610313</v>
+        <v>7.88096565861037</v>
       </c>
       <c r="H25" t="n">
-        <v>117.7256612969678</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>117.9320036494506</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>5.154479050315317</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>43.41206269292837</v>
+        <v>43.41206269292843</v>
       </c>
       <c r="T25" t="n">
-        <v>63.75254983362931</v>
+        <v>63.75254983362937</v>
       </c>
       <c r="U25" t="n">
-        <v>127.3885564706969</v>
+        <v>286.2509789249108</v>
       </c>
       <c r="V25" t="n">
-        <v>93.27522086961403</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>127.660575882377</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>66.84723293482318</v>
+        <v>115.8125871330654</v>
       </c>
       <c r="Y25" t="n">
-        <v>59.72223089788082</v>
+        <v>59.72223089788088</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>231.5596978048558</v>
       </c>
       <c r="I26" t="n">
-        <v>23.81896975173341</v>
+        <v>23.81896975173343</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,16 +2603,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>66.21019719500376</v>
+        <v>66.21019719500379</v>
       </c>
       <c r="T26" t="n">
         <v>131.4895384249674</v>
       </c>
       <c r="U26" t="n">
-        <v>171.691938427054</v>
+        <v>171.6919384270541</v>
       </c>
       <c r="V26" t="n">
-        <v>248.3210472430279</v>
+        <v>248.321047243028</v>
       </c>
       <c r="W26" t="n">
         <v>269.8097574903061</v>
@@ -2621,7 +2621,7 @@
         <v>290.2998894513621</v>
       </c>
       <c r="Y26" t="n">
-        <v>306.8067274289466</v>
+        <v>306.8067274289467</v>
       </c>
     </row>
     <row r="27">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>100.4007689548303</v>
+        <v>100.4007689548304</v>
       </c>
       <c r="C28" t="n">
-        <v>87.81560987152088</v>
+        <v>87.81560987152091</v>
       </c>
       <c r="D28" t="n">
-        <v>69.1842617911054</v>
+        <v>69.18426179110543</v>
       </c>
       <c r="E28" t="n">
-        <v>67.00275141946221</v>
+        <v>67.00275141946224</v>
       </c>
       <c r="F28" t="n">
-        <v>65.98983679582429</v>
+        <v>65.98983679582432</v>
       </c>
       <c r="G28" t="n">
-        <v>87.31217688571732</v>
+        <v>87.31217688571735</v>
       </c>
       <c r="H28" t="n">
-        <v>71.70374093278245</v>
+        <v>71.70374093278248</v>
       </c>
       <c r="I28" t="n">
-        <v>38.50079242234361</v>
+        <v>38.50079242234364</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.76594105089782</v>
+        <v>41.76594105089785</v>
       </c>
       <c r="S28" t="n">
         <v>122.8432739200354</v>
@@ -2770,16 +2770,16 @@
         <v>206.8197676978039</v>
       </c>
       <c r="V28" t="n">
-        <v>172.706432096721</v>
+        <v>172.7064320967211</v>
       </c>
       <c r="W28" t="n">
-        <v>207.091787109484</v>
+        <v>207.0917871094841</v>
       </c>
       <c r="X28" t="n">
         <v>146.2784441619302</v>
       </c>
       <c r="Y28" t="n">
-        <v>139.1534421249878</v>
+        <v>139.1534421249879</v>
       </c>
     </row>
     <row r="29">
@@ -2950,7 +2950,7 @@
         <v>100.4007689548303</v>
       </c>
       <c r="C31" t="n">
-        <v>87.81560987152179</v>
+        <v>87.81560987152085</v>
       </c>
       <c r="D31" t="n">
         <v>69.18426179110537</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>303.3026304363735</v>
+        <v>303.3026304363736</v>
       </c>
       <c r="C32" t="n">
         <v>285.8416805439006</v>
       </c>
       <c r="D32" t="n">
-        <v>275.2518303935759</v>
+        <v>275.251830393576</v>
       </c>
       <c r="E32" t="n">
-        <v>302.4991588451547</v>
+        <v>302.4991588451549</v>
       </c>
       <c r="F32" t="n">
-        <v>327.4448345146044</v>
+        <v>327.4448345146045</v>
       </c>
       <c r="G32" t="n">
-        <v>333.0902356170841</v>
+        <v>333.0902356170842</v>
       </c>
       <c r="H32" t="n">
-        <v>231.5596978048557</v>
+        <v>231.5596978048558</v>
       </c>
       <c r="I32" t="n">
-        <v>23.81896975173335</v>
+        <v>23.81896975173339</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>66.2101971950037</v>
+        <v>66.21019719500377</v>
       </c>
       <c r="T32" t="n">
-        <v>131.4895384249673</v>
+        <v>131.4895384249674</v>
       </c>
       <c r="U32" t="n">
         <v>171.691938427054</v>
       </c>
       <c r="V32" t="n">
-        <v>248.3210472430279</v>
+        <v>248.321047243028</v>
       </c>
       <c r="W32" t="n">
-        <v>269.809757490306</v>
+        <v>269.8097574903061</v>
       </c>
       <c r="X32" t="n">
-        <v>290.299889451362</v>
+        <v>290.2998894513621</v>
       </c>
       <c r="Y32" t="n">
-        <v>306.8067274289466</v>
+        <v>306.8067274289467</v>
       </c>
     </row>
     <row r="33">
@@ -3123,10 +3123,10 @@
         <v>135.8553954612995</v>
       </c>
       <c r="H33" t="n">
-        <v>97.86332148382802</v>
+        <v>97.863321483828</v>
       </c>
       <c r="I33" t="n">
-        <v>38.16086372859612</v>
+        <v>38.16086372859611</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,10 +3153,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>7.763751642754556</v>
+        <v>7.763751642754542</v>
       </c>
       <c r="S33" t="n">
-        <v>144.0419631757948</v>
+        <v>144.0419631757947</v>
       </c>
       <c r="T33" t="n">
         <v>194.1665539401884</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>100.4007689548303</v>
+        <v>100.4007689548304</v>
       </c>
       <c r="C34" t="n">
-        <v>87.81560987152082</v>
+        <v>87.81560987152089</v>
       </c>
       <c r="D34" t="n">
-        <v>69.18426179110534</v>
+        <v>69.18426179110541</v>
       </c>
       <c r="E34" t="n">
-        <v>67.00275141946216</v>
+        <v>67.00275141946223</v>
       </c>
       <c r="F34" t="n">
-        <v>65.98983679582423</v>
+        <v>65.9898367958243</v>
       </c>
       <c r="G34" t="n">
-        <v>87.31217688571726</v>
+        <v>87.31217688571734</v>
       </c>
       <c r="H34" t="n">
-        <v>71.70374093278238</v>
+        <v>71.70374093278245</v>
       </c>
       <c r="I34" t="n">
-        <v>38.50079242234355</v>
+        <v>38.50079242234362</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.76594105089777</v>
+        <v>41.76594105089784</v>
       </c>
       <c r="S34" t="n">
-        <v>122.8432739200353</v>
+        <v>122.8432739200354</v>
       </c>
       <c r="T34" t="n">
         <v>143.1837610607363</v>
       </c>
       <c r="U34" t="n">
-        <v>206.8197676978038</v>
+        <v>206.8197676978039</v>
       </c>
       <c r="V34" t="n">
-        <v>172.706432096721</v>
+        <v>172.7064320967211</v>
       </c>
       <c r="W34" t="n">
-        <v>207.091787109484</v>
+        <v>207.0917871094841</v>
       </c>
       <c r="X34" t="n">
-        <v>146.2784441619301</v>
+        <v>146.2784441619302</v>
       </c>
       <c r="Y34" t="n">
-        <v>139.1534421249878</v>
+        <v>139.1534421249879</v>
       </c>
     </row>
     <row r="35">
@@ -3360,10 +3360,10 @@
         <v>135.8553954612995</v>
       </c>
       <c r="H36" t="n">
-        <v>97.86332148382802</v>
+        <v>97.863321483828</v>
       </c>
       <c r="I36" t="n">
-        <v>38.16086372859612</v>
+        <v>38.16086372859611</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,10 +3390,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>7.763751642754556</v>
+        <v>7.763751642754542</v>
       </c>
       <c r="S36" t="n">
-        <v>144.0419631757948</v>
+        <v>144.0419631757947</v>
       </c>
       <c r="T36" t="n">
         <v>194.1665539401884</v>
@@ -3421,13 +3421,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>132.1445526474336</v>
       </c>
       <c r="C37" t="n">
         <v>21.60541267651715</v>
       </c>
       <c r="D37" t="n">
-        <v>100.9280454837081</v>
+        <v>2.97406459610167</v>
       </c>
       <c r="E37" t="n">
         <v>0.7925542244584847</v>
@@ -3439,7 +3439,7 @@
         <v>21.1019796907136</v>
       </c>
       <c r="H37" t="n">
-        <v>5.493543737778722</v>
+        <v>5.493543737778719</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,16 +3472,16 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>56.63307672503166</v>
+        <v>202.2744851471423</v>
       </c>
       <c r="T37" t="n">
         <v>76.97356386573259</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2509789249108</v>
+        <v>140.6095705028001</v>
       </c>
       <c r="V37" t="n">
-        <v>106.4962349017173</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>140.8815899144803</v>
@@ -3554,7 +3554,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>65.27934122996366</v>
+        <v>65.27934122996365</v>
       </c>
       <c r="U38" t="n">
         <v>105.4817412320503</v>
@@ -3597,10 +3597,10 @@
         <v>135.8553954612995</v>
       </c>
       <c r="H39" t="n">
-        <v>97.86332148382802</v>
+        <v>97.863321483828</v>
       </c>
       <c r="I39" t="n">
-        <v>38.16086372859612</v>
+        <v>38.16086372859611</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,10 +3627,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>7.763751642754556</v>
+        <v>7.763751642754542</v>
       </c>
       <c r="S39" t="n">
-        <v>144.0419631757948</v>
+        <v>144.0419631757947</v>
       </c>
       <c r="T39" t="n">
         <v>194.1665539401884</v>
@@ -3661,7 +3661,7 @@
         <v>34.19057175982661</v>
       </c>
       <c r="C40" t="n">
-        <v>21.60541267651715</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>2.97406459610167</v>
@@ -3676,10 +3676,10 @@
         <v>21.1019796907136</v>
       </c>
       <c r="H40" t="n">
-        <v>151.1349521598894</v>
+        <v>131.1569293980457</v>
       </c>
       <c r="I40" t="n">
-        <v>97.95398088760653</v>
+        <v>117.9320036494506</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3721,7 +3721,7 @@
         <v>106.4962349017173</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>140.8815899144803</v>
       </c>
       <c r="X40" t="n">
         <v>80.06824696692647</v>
@@ -3834,10 +3834,10 @@
         <v>135.8553954612995</v>
       </c>
       <c r="H42" t="n">
-        <v>97.86332148382802</v>
+        <v>97.863321483828</v>
       </c>
       <c r="I42" t="n">
-        <v>38.16086372859612</v>
+        <v>38.16086372859611</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,10 +3864,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>7.763751642754556</v>
+        <v>7.763751642754542</v>
       </c>
       <c r="S42" t="n">
-        <v>144.0419631757948</v>
+        <v>144.0419631757947</v>
       </c>
       <c r="T42" t="n">
         <v>194.1665539401884</v>
@@ -3895,13 +3895,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>34.19057175982661</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>21.60541267651715</v>
       </c>
       <c r="D43" t="n">
-        <v>2.97406459610167</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0.7925542244584847</v>
@@ -3913,7 +3913,7 @@
         <v>21.1019796907136</v>
       </c>
       <c r="H43" t="n">
-        <v>5.493543737778722</v>
+        <v>103.4475246253856</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,13 +3946,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>202.2744851471423</v>
+        <v>56.63307672503166</v>
       </c>
       <c r="T43" t="n">
-        <v>222.6149722878433</v>
+        <v>76.97356386573259</v>
       </c>
       <c r="U43" t="n">
-        <v>238.5635513904066</v>
+        <v>140.6095705028001</v>
       </c>
       <c r="V43" t="n">
         <v>106.4962349017173</v>
@@ -4071,10 +4071,10 @@
         <v>135.8553954612995</v>
       </c>
       <c r="H45" t="n">
-        <v>97.86332148382802</v>
+        <v>97.863321483828</v>
       </c>
       <c r="I45" t="n">
-        <v>38.16086372859612</v>
+        <v>38.16086372859611</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,10 +4101,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>7.763751642754556</v>
+        <v>7.763751642754542</v>
       </c>
       <c r="S45" t="n">
-        <v>144.0419631757948</v>
+        <v>144.0419631757947</v>
       </c>
       <c r="T45" t="n">
         <v>194.1665539401884</v>
@@ -4135,7 +4135,7 @@
         <v>34.19057175982661</v>
       </c>
       <c r="C46" t="n">
-        <v>21.60541267651715</v>
+        <v>114.4049145138088</v>
       </c>
       <c r="D46" t="n">
         <v>2.97406459610167</v>
@@ -4147,16 +4147,16 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.7433881128243</v>
+        <v>21.1019796907136</v>
       </c>
       <c r="H46" t="n">
-        <v>131.1569293980453</v>
+        <v>151.1349521598894</v>
       </c>
       <c r="I46" t="n">
-        <v>117.9320036494506</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>5.154479050315302</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -4186,7 +4186,7 @@
         <v>56.63307672503166</v>
       </c>
       <c r="T46" t="n">
-        <v>76.97356386573259</v>
+        <v>222.6149722878433</v>
       </c>
       <c r="U46" t="n">
         <v>140.6095705028001</v>
@@ -5015,46 +5015,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>888.2345512469556</v>
+        <v>905.7718817222287</v>
       </c>
       <c r="C11" t="n">
-        <v>888.2345512469556</v>
+        <v>617.0429114758645</v>
       </c>
       <c r="D11" t="n">
-        <v>610.2023993342525</v>
+        <v>617.0429114758645</v>
       </c>
       <c r="E11" t="n">
-        <v>304.6476934300557</v>
+        <v>617.0429114758645</v>
       </c>
       <c r="F11" t="n">
-        <v>304.6476934300557</v>
+        <v>617.0429114758645</v>
       </c>
       <c r="G11" t="n">
-        <v>304.6476934300557</v>
+        <v>280.5881280242644</v>
       </c>
       <c r="H11" t="n">
-        <v>70.74900877868623</v>
+        <v>46.68944337289495</v>
       </c>
       <c r="I11" t="n">
-        <v>46.68944337289494</v>
+        <v>46.68944337289495</v>
       </c>
       <c r="J11" t="n">
-        <v>268.557630304025</v>
+        <v>268.5576303040249</v>
       </c>
       <c r="K11" t="n">
-        <v>721.8253333671894</v>
+        <v>579.9337098920192</v>
       </c>
       <c r="L11" t="n">
-        <v>1099.625122440932</v>
+        <v>781.0444013511649</v>
       </c>
       <c r="M11" t="n">
-        <v>1355.06895401507</v>
+        <v>1036.488232925303</v>
       </c>
       <c r="N11" t="n">
-        <v>1619.259942221214</v>
+        <v>1300.679221131447</v>
       </c>
       <c r="O11" t="n">
-        <v>1855.392739562407</v>
+        <v>1536.81201847264</v>
       </c>
       <c r="P11" t="n">
         <v>2022.425618108814</v>
@@ -5066,25 +5066,25 @@
         <v>2334.472168644747</v>
       </c>
       <c r="S11" t="n">
-        <v>2267.593181579086</v>
+        <v>2267.593181579087</v>
       </c>
       <c r="T11" t="n">
         <v>2134.775465998312</v>
       </c>
       <c r="U11" t="n">
-        <v>1961.349265566944</v>
+        <v>1961.349265566945</v>
       </c>
       <c r="V11" t="n">
         <v>1710.519924917421</v>
       </c>
       <c r="W11" t="n">
-        <v>1504.506629898794</v>
+        <v>1710.519924917421</v>
       </c>
       <c r="X11" t="n">
-        <v>1504.506629898794</v>
+        <v>1417.287713350389</v>
       </c>
       <c r="Y11" t="n">
-        <v>1194.60084461703</v>
+        <v>1212.138175092303</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>763.8974496446933</v>
+        <v>763.8974496446938</v>
       </c>
       <c r="C12" t="n">
-        <v>589.4444203635663</v>
+        <v>589.4444203635668</v>
       </c>
       <c r="D12" t="n">
-        <v>440.5100107023151</v>
+        <v>520.743557396363</v>
       </c>
       <c r="E12" t="n">
-        <v>281.2725556968596</v>
+        <v>361.5061023909075</v>
       </c>
       <c r="F12" t="n">
-        <v>134.7379977237445</v>
+        <v>214.9715444177925</v>
       </c>
       <c r="G12" t="n">
-        <v>77.74387223466121</v>
+        <v>145.5412832555495</v>
       </c>
       <c r="H12" t="n">
-        <v>59.1255790460541</v>
+        <v>46.68944337289495</v>
       </c>
       <c r="I12" t="n">
-        <v>46.68944337289494</v>
+        <v>46.68944337289495</v>
       </c>
       <c r="J12" t="n">
-        <v>60.30911088982445</v>
+        <v>185.1392358768292</v>
       </c>
       <c r="K12" t="n">
-        <v>368.1473304499306</v>
+        <v>548.3928263393642</v>
       </c>
       <c r="L12" t="n">
-        <v>917.991007391006</v>
+        <v>731.1045614300149</v>
       </c>
       <c r="M12" t="n">
-        <v>1150.563852458271</v>
+        <v>963.6774064972801</v>
       </c>
       <c r="N12" t="n">
-        <v>1403.700853608115</v>
+        <v>1216.814407647124</v>
       </c>
       <c r="O12" t="n">
-        <v>1613.051960134167</v>
+        <v>1794.596269386699</v>
       </c>
       <c r="P12" t="n">
-        <v>2077.019754551161</v>
+        <v>2258.564063803693</v>
       </c>
       <c r="Q12" t="n">
         <v>2334.472168644747</v>
       </c>
       <c r="R12" t="n">
-        <v>2326.629995268227</v>
+        <v>2326.629995268228</v>
       </c>
       <c r="S12" t="n">
-        <v>2181.133062767424</v>
+        <v>2181.133062767425</v>
       </c>
       <c r="T12" t="n">
         <v>1985.005230504608</v>
       </c>
       <c r="U12" t="n">
-        <v>1837.114050595192</v>
+        <v>1756.880503901145</v>
       </c>
       <c r="V12" t="n">
         <v>1601.96194236345</v>
       </c>
       <c r="W12" t="n">
-        <v>1347.724585635248</v>
+        <v>1347.724585635249</v>
       </c>
       <c r="X12" t="n">
-        <v>1139.873085429715</v>
+        <v>1139.873085429716</v>
       </c>
       <c r="Y12" t="n">
-        <v>932.1127866647614</v>
+        <v>932.1127866647619</v>
       </c>
     </row>
     <row r="13">
@@ -5176,46 +5176,46 @@
         <v>539.1229485433555</v>
       </c>
       <c r="C13" t="n">
-        <v>450.420312309496</v>
+        <v>450.4203123094961</v>
       </c>
       <c r="D13" t="n">
         <v>380.5372195912078</v>
       </c>
       <c r="E13" t="n">
-        <v>312.857672702862</v>
+        <v>312.8576727028621</v>
       </c>
       <c r="F13" t="n">
         <v>246.2012718989992</v>
       </c>
       <c r="G13" t="n">
-        <v>158.0071538326176</v>
+        <v>158.0071538326182</v>
       </c>
       <c r="H13" t="n">
-        <v>85.57913268839297</v>
+        <v>85.57913268839353</v>
       </c>
       <c r="I13" t="n">
-        <v>46.68944337289494</v>
+        <v>46.68944337289495</v>
       </c>
       <c r="J13" t="n">
-        <v>120.2234082279187</v>
+        <v>120.2234082279181</v>
       </c>
       <c r="K13" t="n">
-        <v>320.311455508008</v>
+        <v>320.3114555080074</v>
       </c>
       <c r="L13" t="n">
-        <v>609.8904447105126</v>
+        <v>609.8904447105122</v>
       </c>
       <c r="M13" t="n">
-        <v>921.3253246538482</v>
+        <v>921.3253246538477</v>
       </c>
       <c r="N13" t="n">
-        <v>1232.659405364007</v>
+        <v>1232.659405364006</v>
       </c>
       <c r="O13" t="n">
-        <v>1510.213519297866</v>
+        <v>1510.213519297865</v>
       </c>
       <c r="P13" t="n">
-        <v>1735.537777472236</v>
+        <v>1735.537777472235</v>
       </c>
       <c r="Q13" t="n">
         <v>1832.298320439746</v>
@@ -5252,49 +5252,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1118.723962413733</v>
+        <v>1249.886986889919</v>
       </c>
       <c r="C14" t="n">
-        <v>829.994992167369</v>
+        <v>1249.886986889919</v>
       </c>
       <c r="D14" t="n">
-        <v>829.994992167369</v>
+        <v>971.8548349772161</v>
       </c>
       <c r="E14" t="n">
-        <v>829.994992167369</v>
+        <v>971.8548349772161</v>
       </c>
       <c r="F14" t="n">
-        <v>499.2426340718089</v>
+        <v>641.102476881656</v>
       </c>
       <c r="G14" t="n">
-        <v>162.7878506202087</v>
+        <v>304.6476934300557</v>
       </c>
       <c r="H14" t="n">
-        <v>70.74900877868623</v>
+        <v>70.74900877868627</v>
       </c>
       <c r="I14" t="n">
-        <v>46.68944337289494</v>
+        <v>46.68944337289495</v>
       </c>
       <c r="J14" t="n">
         <v>268.557630304025</v>
       </c>
       <c r="K14" t="n">
-        <v>400.9213749217363</v>
+        <v>721.8253333671894</v>
       </c>
       <c r="L14" t="n">
-        <v>978.7032366613112</v>
+        <v>922.9360248263351</v>
       </c>
       <c r="M14" t="n">
-        <v>1556.485098400886</v>
+        <v>1178.379856400473</v>
       </c>
       <c r="N14" t="n">
-        <v>1820.67608660703</v>
+        <v>1442.570844606618</v>
       </c>
       <c r="O14" t="n">
-        <v>2056.808883948223</v>
+        <v>1855.392739562407</v>
       </c>
       <c r="P14" t="n">
-        <v>2232.617458862119</v>
+        <v>2022.425618108814</v>
       </c>
       <c r="Q14" t="n">
         <v>2309.879447798891</v>
@@ -5303,25 +5303,25 @@
         <v>2334.472168644747</v>
       </c>
       <c r="S14" t="n">
-        <v>2334.472168644747</v>
+        <v>2267.593181579087</v>
       </c>
       <c r="T14" t="n">
-        <v>2201.654453063972</v>
+        <v>2134.775465998312</v>
       </c>
       <c r="U14" t="n">
-        <v>2028.228252632604</v>
+        <v>2116.988406191281</v>
       </c>
       <c r="V14" t="n">
-        <v>2028.228252632604</v>
+        <v>1866.159065541758</v>
       </c>
       <c r="W14" t="n">
-        <v>2028.228252632604</v>
+        <v>1866.159065541758</v>
       </c>
       <c r="X14" t="n">
-        <v>1734.996041065572</v>
+        <v>1866.159065541758</v>
       </c>
       <c r="Y14" t="n">
-        <v>1425.090255783807</v>
+        <v>1556.253280259994</v>
       </c>
     </row>
     <row r="15">
@@ -5331,28 +5331,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>771.7396230212132</v>
+        <v>831.6948606655816</v>
       </c>
       <c r="C15" t="n">
-        <v>597.2865937400862</v>
+        <v>657.2418313844546</v>
       </c>
       <c r="D15" t="n">
-        <v>448.352184078835</v>
+        <v>508.3074217232034</v>
       </c>
       <c r="E15" t="n">
-        <v>289.1147290733795</v>
+        <v>349.0699667177479</v>
       </c>
       <c r="F15" t="n">
-        <v>142.5801711002644</v>
+        <v>202.5354087446329</v>
       </c>
       <c r="G15" t="n">
-        <v>65.30773656150205</v>
+        <v>145.5412832555495</v>
       </c>
       <c r="H15" t="n">
-        <v>46.68944337289494</v>
+        <v>46.68944337289495</v>
       </c>
       <c r="I15" t="n">
-        <v>46.68944337289494</v>
+        <v>46.68944337289495</v>
       </c>
       <c r="J15" t="n">
         <v>185.1392358768292</v>
@@ -5361,7 +5361,7 @@
         <v>548.3928263393643</v>
       </c>
       <c r="L15" t="n">
-        <v>917.991007391006</v>
+        <v>917.9910073910058</v>
       </c>
       <c r="M15" t="n">
         <v>1150.563852458271</v>
@@ -5382,25 +5382,25 @@
         <v>2334.472168644747</v>
       </c>
       <c r="S15" t="n">
-        <v>2269.208782837992</v>
+        <v>2248.930473788312</v>
       </c>
       <c r="T15" t="n">
-        <v>2073.080950575175</v>
+        <v>2133.036188219543</v>
       </c>
       <c r="U15" t="n">
-        <v>1844.956223971712</v>
+        <v>1904.91146161608</v>
       </c>
       <c r="V15" t="n">
-        <v>1609.80411573997</v>
+        <v>1669.759353384338</v>
       </c>
       <c r="W15" t="n">
-        <v>1355.566759011768</v>
+        <v>1415.521996656136</v>
       </c>
       <c r="X15" t="n">
-        <v>1147.715258806235</v>
+        <v>1207.670496450603</v>
       </c>
       <c r="Y15" t="n">
-        <v>939.9549600412813</v>
+        <v>999.9101976856496</v>
       </c>
     </row>
     <row r="16">
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>539.1229485433556</v>
+        <v>539.1229485433553</v>
       </c>
       <c r="C16" t="n">
-        <v>450.4203123094962</v>
+        <v>450.4203123094957</v>
       </c>
       <c r="D16" t="n">
-        <v>380.5372195912079</v>
+        <v>380.5372195912074</v>
       </c>
       <c r="E16" t="n">
-        <v>312.8576727028623</v>
+        <v>312.8576727028617</v>
       </c>
       <c r="F16" t="n">
-        <v>246.2012718989993</v>
+        <v>246.2012718989988</v>
       </c>
       <c r="G16" t="n">
-        <v>158.0071538326182</v>
+        <v>158.007153832618</v>
       </c>
       <c r="H16" t="n">
-        <v>85.57913268839353</v>
+        <v>85.57913268839329</v>
       </c>
       <c r="I16" t="n">
-        <v>46.68944337289494</v>
+        <v>46.68944337289495</v>
       </c>
       <c r="J16" t="n">
         <v>120.2234082279187</v>
@@ -5455,13 +5455,13 @@
         <v>1735.537777472236</v>
       </c>
       <c r="Q16" t="n">
-        <v>1832.298320439746</v>
+        <v>1832.298320439747</v>
       </c>
       <c r="R16" t="n">
         <v>1790.110501196415</v>
       </c>
       <c r="S16" t="n">
-        <v>1666.026386125672</v>
+        <v>1666.026386125673</v>
       </c>
       <c r="T16" t="n">
         <v>1521.396324448161</v>
@@ -5476,10 +5476,10 @@
         <v>928.8529033330003</v>
       </c>
       <c r="X16" t="n">
-        <v>781.0968991290305</v>
+        <v>781.0968991290301</v>
       </c>
       <c r="Y16" t="n">
-        <v>640.5378666795478</v>
+        <v>640.5378666795475</v>
       </c>
     </row>
     <row r="17">
@@ -5498,40 +5498,40 @@
         <v>932.4157886994315</v>
       </c>
       <c r="E17" t="n">
-        <v>707.0946294892822</v>
+        <v>707.0946294892821</v>
       </c>
       <c r="F17" t="n">
-        <v>456.5758180877695</v>
+        <v>456.5758180877693</v>
       </c>
       <c r="G17" t="n">
-        <v>200.3545813302169</v>
+        <v>200.354581330217</v>
       </c>
       <c r="H17" t="n">
-        <v>46.68944337289494</v>
+        <v>46.68944337289495</v>
       </c>
       <c r="I17" t="n">
-        <v>46.68944337289494</v>
+        <v>46.68944337289495</v>
       </c>
       <c r="J17" t="n">
-        <v>268.557630304025</v>
+        <v>101.151981283672</v>
       </c>
       <c r="K17" t="n">
-        <v>400.9213749217363</v>
+        <v>554.4196843468363</v>
       </c>
       <c r="L17" t="n">
-        <v>602.032066380882</v>
+        <v>755.5303758059821</v>
       </c>
       <c r="M17" t="n">
-        <v>1179.813928120457</v>
+        <v>1010.97420738012</v>
       </c>
       <c r="N17" t="n">
-        <v>1512.395439421993</v>
+        <v>1275.165195586264</v>
       </c>
       <c r="O17" t="n">
-        <v>2090.177301161568</v>
+        <v>1852.94705732584</v>
       </c>
       <c r="P17" t="n">
-        <v>2257.210179707975</v>
+        <v>2257.210179707976</v>
       </c>
       <c r="Q17" t="n">
         <v>2334.472168644747</v>
@@ -5543,16 +5543,16 @@
         <v>2334.472168644747</v>
       </c>
       <c r="T17" t="n">
-        <v>2281.887999758019</v>
+        <v>2281.88799975802</v>
       </c>
       <c r="U17" t="n">
-        <v>2188.695346020699</v>
+        <v>2188.6953460207</v>
       </c>
       <c r="V17" t="n">
-        <v>2018.099552065223</v>
+        <v>2018.099552065224</v>
       </c>
       <c r="W17" t="n">
-        <v>1825.797990183204</v>
+        <v>1825.797990183205</v>
       </c>
       <c r="X17" t="n">
         <v>1794.514802734148</v>
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>790.0076409701162</v>
+        <v>813.0765674769744</v>
       </c>
       <c r="C18" t="n">
-        <v>776.0217050770841</v>
+        <v>638.6235381958475</v>
       </c>
       <c r="D18" t="n">
-        <v>627.0872954158328</v>
+        <v>489.6891285345963</v>
       </c>
       <c r="E18" t="n">
-        <v>467.8498404103773</v>
+        <v>330.4516735291407</v>
       </c>
       <c r="F18" t="n">
-        <v>321.3152824372622</v>
+        <v>183.9171155560257</v>
       </c>
       <c r="G18" t="n">
-        <v>184.0876102541314</v>
+        <v>46.68944337289495</v>
       </c>
       <c r="H18" t="n">
-        <v>85.23577037147689</v>
+        <v>46.68944337289495</v>
       </c>
       <c r="I18" t="n">
-        <v>46.68944337289494</v>
+        <v>46.68944337289495</v>
       </c>
       <c r="J18" t="n">
         <v>185.1392358768292</v>
       </c>
       <c r="K18" t="n">
-        <v>286.5722416969115</v>
+        <v>548.3928263393643</v>
       </c>
       <c r="L18" t="n">
-        <v>757.5367670359731</v>
+        <v>917.9910073910064</v>
       </c>
       <c r="M18" t="n">
-        <v>990.1096121032383</v>
+        <v>1150.563852458272</v>
       </c>
       <c r="N18" t="n">
-        <v>1243.246613253082</v>
+        <v>1403.700853608116</v>
       </c>
       <c r="O18" t="n">
-        <v>1821.028474992657</v>
+        <v>1613.051960134167</v>
       </c>
       <c r="P18" t="n">
-        <v>2284.996269409651</v>
+        <v>2077.019754551161</v>
       </c>
       <c r="Q18" t="n">
         <v>2334.472168644747</v>
       </c>
       <c r="R18" t="n">
-        <v>2326.629995268227</v>
+        <v>2326.629995268228</v>
       </c>
       <c r="S18" t="n">
-        <v>2181.133062767424</v>
+        <v>2310.545727293753</v>
       </c>
       <c r="T18" t="n">
-        <v>1985.005230504608</v>
+        <v>2114.417895030936</v>
       </c>
       <c r="U18" t="n">
-        <v>1863.224241920615</v>
+        <v>1886.293168427473</v>
       </c>
       <c r="V18" t="n">
-        <v>1628.072133688873</v>
+        <v>1651.141060195731</v>
       </c>
       <c r="W18" t="n">
-        <v>1373.834776960671</v>
+        <v>1396.903703467529</v>
       </c>
       <c r="X18" t="n">
-        <v>1165.983276755138</v>
+        <v>1189.052203261996</v>
       </c>
       <c r="Y18" t="n">
-        <v>958.2229779901843</v>
+        <v>981.2919044970424</v>
       </c>
     </row>
     <row r="19">
@@ -5647,31 +5647,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>63.11910428504057</v>
+        <v>438.7197892920966</v>
       </c>
       <c r="C19" t="n">
-        <v>54.65001474522859</v>
+        <v>430.2506997522846</v>
       </c>
       <c r="D19" t="n">
-        <v>54.65001474522859</v>
+        <v>430.2506997522846</v>
       </c>
       <c r="E19" t="n">
-        <v>54.65001474522859</v>
+        <v>430.2506997522846</v>
       </c>
       <c r="F19" t="n">
-        <v>54.65001474522859</v>
+        <v>430.2506997522846</v>
       </c>
       <c r="G19" t="n">
-        <v>46.68944337289494</v>
+        <v>261.823034991856</v>
       </c>
       <c r="H19" t="n">
-        <v>46.68944337289494</v>
+        <v>109.1614671535839</v>
       </c>
       <c r="I19" t="n">
-        <v>46.68944337289494</v>
+        <v>46.68944337289495</v>
       </c>
       <c r="J19" t="n">
-        <v>46.68944337289494</v>
+        <v>46.68944337289495</v>
       </c>
       <c r="K19" t="n">
         <v>168.1405915381483</v>
@@ -5698,25 +5698,25 @@
         <v>1208.306061780872</v>
       </c>
       <c r="S19" t="n">
-        <v>1003.988400016081</v>
+        <v>1164.455493404176</v>
       </c>
       <c r="T19" t="n">
-        <v>779.1247916445225</v>
+        <v>1100.058978420712</v>
       </c>
       <c r="U19" t="n">
-        <v>650.449482078162</v>
+        <v>971.3836688543518</v>
       </c>
       <c r="V19" t="n">
-        <v>556.23208726037</v>
+        <v>877.1662740365598</v>
       </c>
       <c r="W19" t="n">
-        <v>427.2820106115043</v>
+        <v>587.7491039995991</v>
       </c>
       <c r="X19" t="n">
-        <v>359.759553101582</v>
+        <v>520.2266464896767</v>
       </c>
       <c r="Y19" t="n">
-        <v>138.9669739580519</v>
+        <v>459.9011607342414</v>
       </c>
     </row>
     <row r="20">
@@ -5726,49 +5726,49 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1156.994340046477</v>
+        <v>1338.709817470404</v>
       </c>
       <c r="C20" t="n">
-        <v>948.4989164941597</v>
+        <v>1130.214393918087</v>
       </c>
       <c r="D20" t="n">
-        <v>750.7003112755042</v>
+        <v>932.4157886994313</v>
       </c>
       <c r="E20" t="n">
-        <v>525.3791520653549</v>
+        <v>707.0946294892819</v>
       </c>
       <c r="F20" t="n">
-        <v>456.5758180877695</v>
+        <v>456.5758180877692</v>
       </c>
       <c r="G20" t="n">
-        <v>200.3545813302169</v>
+        <v>200.354581330217</v>
       </c>
       <c r="H20" t="n">
-        <v>46.68944337289494</v>
+        <v>46.68944337289495</v>
       </c>
       <c r="I20" t="n">
-        <v>46.68944337289494</v>
+        <v>46.68944337289495</v>
       </c>
       <c r="J20" t="n">
-        <v>101.1519812836719</v>
+        <v>126.6660068288542</v>
       </c>
       <c r="K20" t="n">
-        <v>390.3860370562801</v>
+        <v>579.9337098920186</v>
       </c>
       <c r="L20" t="n">
-        <v>968.167898795855</v>
+        <v>781.0444013511643</v>
       </c>
       <c r="M20" t="n">
-        <v>1223.611730369993</v>
+        <v>1036.488232925302</v>
       </c>
       <c r="N20" t="n">
-        <v>1487.802718576137</v>
+        <v>1300.679221131447</v>
       </c>
       <c r="O20" t="n">
-        <v>2065.584580315712</v>
+        <v>1536.812018472639</v>
       </c>
       <c r="P20" t="n">
-        <v>2232.617458862119</v>
+        <v>2022.425618108814</v>
       </c>
       <c r="Q20" t="n">
         <v>2309.879447798891</v>
@@ -5780,22 +5780,22 @@
         <v>2334.472168644747</v>
       </c>
       <c r="T20" t="n">
-        <v>2281.887999758019</v>
+        <v>2293.007683226472</v>
       </c>
       <c r="U20" t="n">
-        <v>2188.6953460207</v>
+        <v>2199.815029489152</v>
       </c>
       <c r="V20" t="n">
-        <v>2018.099552065224</v>
+        <v>2199.815029489152</v>
       </c>
       <c r="W20" t="n">
-        <v>1825.797990183205</v>
+        <v>2007.513467607132</v>
       </c>
       <c r="X20" t="n">
-        <v>1612.79932531022</v>
+        <v>1794.514802734148</v>
       </c>
       <c r="Y20" t="n">
-        <v>1383.127086722503</v>
+        <v>1564.842564146431</v>
       </c>
     </row>
     <row r="21">
@@ -5805,31 +5805,31 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>950.4747343582111</v>
+        <v>683.6639029506464</v>
       </c>
       <c r="C21" t="n">
-        <v>776.0217050770841</v>
+        <v>509.2108736695194</v>
       </c>
       <c r="D21" t="n">
-        <v>627.0872954158328</v>
+        <v>360.2764640082681</v>
       </c>
       <c r="E21" t="n">
-        <v>467.8498404103773</v>
+        <v>201.0390090028126</v>
       </c>
       <c r="F21" t="n">
-        <v>321.3152824372622</v>
+        <v>54.50445102969761</v>
       </c>
       <c r="G21" t="n">
-        <v>184.0876102541314</v>
+        <v>46.68944337289495</v>
       </c>
       <c r="H21" t="n">
-        <v>85.23577037147689</v>
+        <v>46.68944337289495</v>
       </c>
       <c r="I21" t="n">
-        <v>46.68944337289494</v>
+        <v>46.68944337289495</v>
       </c>
       <c r="J21" t="n">
-        <v>60.30911088982445</v>
+        <v>60.30911088982446</v>
       </c>
       <c r="K21" t="n">
         <v>423.5627013523596</v>
@@ -5853,28 +5853,28 @@
         <v>2334.472168644747</v>
       </c>
       <c r="R21" t="n">
-        <v>2326.629995268227</v>
+        <v>2326.629995268228</v>
       </c>
       <c r="S21" t="n">
-        <v>2326.629995268227</v>
+        <v>2181.133062767425</v>
       </c>
       <c r="T21" t="n">
-        <v>2130.502163005411</v>
+        <v>1985.005230504608</v>
       </c>
       <c r="U21" t="n">
-        <v>2023.69133530871</v>
+        <v>1756.880503901145</v>
       </c>
       <c r="V21" t="n">
-        <v>1788.539227076967</v>
+        <v>1521.728395669403</v>
       </c>
       <c r="W21" t="n">
-        <v>1534.301870348766</v>
+        <v>1267.491038941201</v>
       </c>
       <c r="X21" t="n">
-        <v>1326.450370143233</v>
+        <v>1059.639538735668</v>
       </c>
       <c r="Y21" t="n">
-        <v>1118.690071378279</v>
+        <v>851.8792399707145</v>
       </c>
     </row>
     <row r="22">
@@ -5884,31 +5884,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>63.11910428504057</v>
+        <v>371.4992912555286</v>
       </c>
       <c r="C22" t="n">
-        <v>54.65001474522859</v>
+        <v>202.5631083276218</v>
       </c>
       <c r="D22" t="n">
-        <v>54.65001474522859</v>
+        <v>202.5631083276218</v>
       </c>
       <c r="E22" t="n">
-        <v>54.65001474522859</v>
+        <v>54.65001474522866</v>
       </c>
       <c r="F22" t="n">
-        <v>54.65001474522859</v>
+        <v>54.65001474522866</v>
       </c>
       <c r="G22" t="n">
-        <v>46.68944337289494</v>
+        <v>46.68944337289495</v>
       </c>
       <c r="H22" t="n">
-        <v>46.68944337289494</v>
+        <v>46.68944337289495</v>
       </c>
       <c r="I22" t="n">
-        <v>46.68944337289494</v>
+        <v>46.68944337289495</v>
       </c>
       <c r="J22" t="n">
-        <v>46.68944337289494</v>
+        <v>46.68944337289495</v>
       </c>
       <c r="K22" t="n">
         <v>168.1405915381483</v>
@@ -5932,28 +5932,28 @@
         <v>1208.306061780872</v>
       </c>
       <c r="R22" t="n">
-        <v>1085.884695843493</v>
+        <v>1208.306061780872</v>
       </c>
       <c r="S22" t="n">
-        <v>881.5670340787028</v>
+        <v>1097.234995367608</v>
       </c>
       <c r="T22" t="n">
-        <v>817.1705190952389</v>
+        <v>1032.838480384144</v>
       </c>
       <c r="U22" t="n">
-        <v>688.4952095288784</v>
+        <v>904.1631708177838</v>
       </c>
       <c r="V22" t="n">
-        <v>594.2778147110864</v>
+        <v>809.9457759999918</v>
       </c>
       <c r="W22" t="n">
-        <v>304.8606446741258</v>
+        <v>680.9956993511261</v>
       </c>
       <c r="X22" t="n">
-        <v>144.6259614826205</v>
+        <v>613.4732418412036</v>
       </c>
       <c r="Y22" t="n">
-        <v>84.30047572718534</v>
+        <v>553.1477560857684</v>
       </c>
     </row>
     <row r="23">
@@ -5969,67 +5969,67 @@
         <v>1133.922873049188</v>
       </c>
       <c r="D23" t="n">
-        <v>936.1242678305322</v>
+        <v>936.1242678305323</v>
       </c>
       <c r="E23" t="n">
-        <v>710.8031086203829</v>
+        <v>710.8031086203828</v>
       </c>
       <c r="F23" t="n">
-        <v>460.2842972188703</v>
+        <v>460.2842972188701</v>
       </c>
       <c r="G23" t="n">
         <v>204.0630604613175</v>
       </c>
       <c r="H23" t="n">
-        <v>50.39792250399551</v>
+        <v>50.39792250399552</v>
       </c>
       <c r="I23" t="n">
-        <v>50.39792250399551</v>
+        <v>50.39792250399552</v>
       </c>
       <c r="J23" t="n">
-        <v>272.2661094351255</v>
+        <v>104.8604604147725</v>
       </c>
       <c r="K23" t="n">
-        <v>725.5338124982899</v>
+        <v>558.1281634779368</v>
       </c>
       <c r="L23" t="n">
-        <v>926.6445039574356</v>
+        <v>759.2388549370826</v>
       </c>
       <c r="M23" t="n">
-        <v>1182.088335531574</v>
+        <v>1382.913145924027</v>
       </c>
       <c r="N23" t="n">
-        <v>1446.279323737718</v>
+        <v>2006.587436910972</v>
       </c>
       <c r="O23" t="n">
-        <v>1722.235975027667</v>
+        <v>2242.720234252164</v>
       </c>
       <c r="P23" t="n">
-        <v>2207.849574663842</v>
+        <v>2442.634136263005</v>
       </c>
       <c r="Q23" t="n">
-        <v>2495.303404353919</v>
+        <v>2519.896125199776</v>
       </c>
       <c r="R23" t="n">
-        <v>2519.896125199775</v>
+        <v>2519.896125199776</v>
       </c>
       <c r="S23" t="n">
-        <v>2519.896125199775</v>
+        <v>2519.896125199776</v>
       </c>
       <c r="T23" t="n">
-        <v>2467.311956313048</v>
+        <v>2467.311956313049</v>
       </c>
       <c r="U23" t="n">
         <v>2374.119302575728</v>
       </c>
       <c r="V23" t="n">
-        <v>2203.523508620252</v>
+        <v>2203.523508620253</v>
       </c>
       <c r="W23" t="n">
-        <v>2011.221946738233</v>
+        <v>2011.221946738234</v>
       </c>
       <c r="X23" t="n">
-        <v>1798.223281865248</v>
+        <v>1798.223281865249</v>
       </c>
       <c r="Y23" t="n">
         <v>1568.551043277532</v>
@@ -6057,13 +6057,13 @@
         <v>325.0237615683628</v>
       </c>
       <c r="G24" t="n">
-        <v>187.796089385232</v>
+        <v>187.7960893852321</v>
       </c>
       <c r="H24" t="n">
-        <v>88.94424950257745</v>
+        <v>88.94424950257746</v>
       </c>
       <c r="I24" t="n">
-        <v>50.39792250399551</v>
+        <v>50.39792250399552</v>
       </c>
       <c r="J24" t="n">
         <v>188.8477150079298</v>
@@ -6072,25 +6072,25 @@
         <v>552.1013054704649</v>
       </c>
       <c r="L24" t="n">
-        <v>1101.94498241154</v>
+        <v>734.8130405611157</v>
       </c>
       <c r="M24" t="n">
-        <v>1335.9878090133</v>
+        <v>1358.48733154806</v>
       </c>
       <c r="N24" t="n">
-        <v>1589.124810163144</v>
+        <v>1904.402951116682</v>
       </c>
       <c r="O24" t="n">
-        <v>1798.475916689195</v>
+        <v>2113.754057642734</v>
       </c>
       <c r="P24" t="n">
-        <v>2262.443711106189</v>
+        <v>2262.44371110619</v>
       </c>
       <c r="Q24" t="n">
-        <v>2519.896125199775</v>
+        <v>2519.896125199776</v>
       </c>
       <c r="R24" t="n">
-        <v>2519.896125199775</v>
+        <v>2512.053951823256</v>
       </c>
       <c r="S24" t="n">
         <v>2451.652373306089</v>
@@ -6121,31 +6121,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>602.8953618112927</v>
+        <v>72.03412791140927</v>
       </c>
       <c r="C25" t="n">
-        <v>594.4262722714807</v>
+        <v>63.56503837159723</v>
       </c>
       <c r="D25" t="n">
-        <v>444.3096328591449</v>
+        <v>63.56503837159723</v>
       </c>
       <c r="E25" t="n">
-        <v>296.3965392767518</v>
+        <v>63.56503837159723</v>
       </c>
       <c r="F25" t="n">
-        <v>296.3965392767518</v>
+        <v>63.56503837159723</v>
       </c>
       <c r="G25" t="n">
-        <v>288.4359679044181</v>
+        <v>55.60446699926352</v>
       </c>
       <c r="H25" t="n">
-        <v>169.5211585135415</v>
+        <v>55.60446699926352</v>
       </c>
       <c r="I25" t="n">
-        <v>50.39792250399551</v>
+        <v>55.60446699926352</v>
       </c>
       <c r="J25" t="n">
-        <v>50.39792250399551</v>
+        <v>50.39792250399552</v>
       </c>
       <c r="K25" t="n">
         <v>171.8490706692489</v>
@@ -6178,19 +6178,19 @@
         <v>1103.767457551813</v>
       </c>
       <c r="U25" t="n">
-        <v>975.0921479854526</v>
+        <v>814.6250545973575</v>
       </c>
       <c r="V25" t="n">
-        <v>880.8747531676606</v>
+        <v>559.9405663914706</v>
       </c>
       <c r="W25" t="n">
-        <v>751.924676518795</v>
+        <v>270.52339635451</v>
       </c>
       <c r="X25" t="n">
-        <v>684.4022190088725</v>
+        <v>153.5409851089893</v>
       </c>
       <c r="Y25" t="n">
-        <v>624.0767332534374</v>
+        <v>93.21549935355411</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1871.021482161256</v>
+        <v>1871.021482161257</v>
       </c>
       <c r="C26" t="n">
         <v>1582.292511914892</v>
@@ -6209,46 +6209,46 @@
         <v>1304.260360002189</v>
       </c>
       <c r="E26" t="n">
-        <v>998.7056540979921</v>
+        <v>998.7056540979922</v>
       </c>
       <c r="F26" t="n">
-        <v>667.953296002432</v>
+        <v>667.9532960024321</v>
       </c>
       <c r="G26" t="n">
-        <v>331.4985125508312</v>
+        <v>331.4985125508319</v>
       </c>
       <c r="H26" t="n">
-        <v>97.59982789946172</v>
+        <v>97.59982789946176</v>
       </c>
       <c r="I26" t="n">
-        <v>73.5402624936704</v>
+        <v>73.54026249367041</v>
       </c>
       <c r="J26" t="n">
-        <v>128.0028004044474</v>
+        <v>295.4084494248004</v>
       </c>
       <c r="K26" t="n">
-        <v>488.7905923491203</v>
+        <v>748.6761524879648</v>
       </c>
       <c r="L26" t="n">
-        <v>1103.385886213212</v>
+        <v>1363.271446352057</v>
       </c>
       <c r="M26" t="n">
-        <v>1803.848115945254</v>
+        <v>2063.733676084099</v>
       </c>
       <c r="N26" t="n">
-        <v>2501.012559319262</v>
+        <v>2760.898119458107</v>
       </c>
       <c r="O26" t="n">
-        <v>3114.137536110573</v>
+        <v>2997.0309167993</v>
       </c>
       <c r="P26" t="n">
-        <v>3599.751135746748</v>
+        <v>3389.559294993444</v>
       </c>
       <c r="Q26" t="n">
-        <v>3677.01312468352</v>
+        <v>3677.013124683521</v>
       </c>
       <c r="R26" t="n">
-        <v>3677.01312468352</v>
+        <v>3677.013124683521</v>
       </c>
       <c r="S26" t="n">
         <v>3610.13413761786</v>
@@ -6257,16 +6257,16 @@
         <v>3477.316422037085</v>
       </c>
       <c r="U26" t="n">
-        <v>3303.890221605717</v>
+        <v>3303.890221605718</v>
       </c>
       <c r="V26" t="n">
-        <v>3053.060880956194</v>
+        <v>3053.060880956195</v>
       </c>
       <c r="W26" t="n">
-        <v>2780.525772380127</v>
+        <v>2780.525772380128</v>
       </c>
       <c r="X26" t="n">
-        <v>2487.293560813095</v>
+        <v>2487.293560813096</v>
       </c>
       <c r="Y26" t="n">
         <v>2177.387775531331</v>
@@ -6297,31 +6297,31 @@
         <v>210.9384293749069</v>
       </c>
       <c r="H27" t="n">
-        <v>112.0865894922523</v>
+        <v>112.0865894922524</v>
       </c>
       <c r="I27" t="n">
-        <v>73.5402624936704</v>
+        <v>73.54026249367041</v>
       </c>
       <c r="J27" t="n">
-        <v>211.9900549976047</v>
+        <v>116.6082092902635</v>
       </c>
       <c r="K27" t="n">
-        <v>575.2436454601398</v>
+        <v>479.8617997527987</v>
       </c>
       <c r="L27" t="n">
-        <v>1125.087322401215</v>
+        <v>1029.705476693874</v>
       </c>
       <c r="M27" t="n">
-        <v>1357.66016746848</v>
+        <v>1262.278321761139</v>
       </c>
       <c r="N27" t="n">
-        <v>1610.797168618325</v>
+        <v>1515.415322910983</v>
       </c>
       <c r="O27" t="n">
-        <v>1906.713610662507</v>
+        <v>2114.690125520997</v>
       </c>
       <c r="P27" t="n">
-        <v>2370.681405079501</v>
+        <v>2578.657919937991</v>
       </c>
       <c r="Q27" t="n">
         <v>2628.133819173087</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>565.9737676641312</v>
+        <v>565.9737676641314</v>
       </c>
       <c r="C28" t="n">
-        <v>477.2711314302717</v>
+        <v>477.2711314302719</v>
       </c>
       <c r="D28" t="n">
-        <v>407.3880387119834</v>
+        <v>407.3880387119835</v>
       </c>
       <c r="E28" t="n">
-        <v>339.7084918236378</v>
+        <v>339.7084918236379</v>
       </c>
       <c r="F28" t="n">
-        <v>273.0520910197748</v>
+        <v>273.0520910197749</v>
       </c>
       <c r="G28" t="n">
-        <v>184.8579729533937</v>
+        <v>184.8579729533938</v>
       </c>
       <c r="H28" t="n">
         <v>112.429951809169</v>
       </c>
       <c r="I28" t="n">
-        <v>73.5402624936704</v>
+        <v>73.54026249367041</v>
       </c>
       <c r="J28" t="n">
         <v>147.0742273486941</v>
       </c>
       <c r="K28" t="n">
-        <v>347.1622746287834</v>
+        <v>347.1622746287833</v>
       </c>
       <c r="L28" t="n">
-        <v>636.7412638312881</v>
+        <v>636.7412638312882</v>
       </c>
       <c r="M28" t="n">
         <v>948.1761437746236</v>
       </c>
       <c r="N28" t="n">
-        <v>1259.510224484782</v>
+        <v>1259.510224484783</v>
       </c>
       <c r="O28" t="n">
-        <v>1537.06433841864</v>
+        <v>1537.064338418642</v>
       </c>
       <c r="P28" t="n">
-        <v>1762.38859659301</v>
+        <v>1762.388596593012</v>
       </c>
       <c r="Q28" t="n">
-        <v>1859.149139560521</v>
+        <v>1859.149139560523</v>
       </c>
       <c r="R28" t="n">
-        <v>1816.96132031719</v>
+        <v>1816.961320317192</v>
       </c>
       <c r="S28" t="n">
-        <v>1692.877205246448</v>
+        <v>1692.877205246449</v>
       </c>
       <c r="T28" t="n">
-        <v>1548.247143568936</v>
+        <v>1548.247143568937</v>
       </c>
       <c r="U28" t="n">
-        <v>1339.338287308528</v>
+        <v>1339.338287308529</v>
       </c>
       <c r="V28" t="n">
-        <v>1164.887345796689</v>
+        <v>1164.88734579669</v>
       </c>
       <c r="W28" t="n">
-        <v>955.7037224537755</v>
+        <v>955.7037224537764</v>
       </c>
       <c r="X28" t="n">
-        <v>807.9477182498057</v>
+        <v>807.9477182498065</v>
       </c>
       <c r="Y28" t="n">
-        <v>667.3886858003234</v>
+        <v>667.3886858003237</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1871.021482161256</v>
+        <v>1871.021482161255</v>
       </c>
       <c r="C29" t="n">
-        <v>1582.292511914892</v>
+        <v>1582.292511914891</v>
       </c>
       <c r="D29" t="n">
-        <v>1304.260360002189</v>
+        <v>1304.260360002188</v>
       </c>
       <c r="E29" t="n">
-        <v>998.7056540979921</v>
+        <v>998.7056540979913</v>
       </c>
       <c r="F29" t="n">
-        <v>667.953296002432</v>
+        <v>667.9532960024312</v>
       </c>
       <c r="G29" t="n">
-        <v>331.4985125508315</v>
+        <v>331.4985125508311</v>
       </c>
       <c r="H29" t="n">
-        <v>97.59982789946169</v>
+        <v>97.59982789946166</v>
       </c>
       <c r="I29" t="n">
-        <v>73.5402624936704</v>
+        <v>73.54026249367037</v>
       </c>
       <c r="J29" t="n">
-        <v>295.4084494248004</v>
+        <v>128.0028004044474</v>
       </c>
       <c r="K29" t="n">
-        <v>748.6761524879648</v>
+        <v>581.2705034676117</v>
       </c>
       <c r="L29" t="n">
-        <v>1363.271446352057</v>
+        <v>1195.865797331703</v>
       </c>
       <c r="M29" t="n">
-        <v>1618.715277926195</v>
+        <v>1896.328027063746</v>
       </c>
       <c r="N29" t="n">
-        <v>2266.227997720101</v>
+        <v>2593.492470437754</v>
       </c>
       <c r="O29" t="n">
-        <v>2879.352974511412</v>
+        <v>3206.617447229065</v>
       </c>
       <c r="P29" t="n">
-        <v>3364.966574147587</v>
+        <v>3599.751135746747</v>
       </c>
       <c r="Q29" t="n">
-        <v>3652.420403837664</v>
+        <v>3677.013124683519</v>
       </c>
       <c r="R29" t="n">
-        <v>3677.01312468352</v>
+        <v>3677.013124683519</v>
       </c>
       <c r="S29" t="n">
-        <v>3610.13413761786</v>
+        <v>3610.134137617858</v>
       </c>
       <c r="T29" t="n">
-        <v>3477.316422037085</v>
+        <v>3477.316422037083</v>
       </c>
       <c r="U29" t="n">
-        <v>3303.890221605717</v>
+        <v>3303.890221605716</v>
       </c>
       <c r="V29" t="n">
-        <v>3053.060880956194</v>
+        <v>3053.060880956193</v>
       </c>
       <c r="W29" t="n">
-        <v>2780.525772380127</v>
+        <v>2780.525772380126</v>
       </c>
       <c r="X29" t="n">
-        <v>2487.293560813095</v>
+        <v>2487.293560813094</v>
       </c>
       <c r="Y29" t="n">
-        <v>2177.387775531331</v>
+        <v>2177.38777553133</v>
       </c>
     </row>
     <row r="30">
@@ -6537,28 +6537,28 @@
         <v>112.0865894922523</v>
       </c>
       <c r="I30" t="n">
-        <v>73.5402624936704</v>
+        <v>73.54026249367037</v>
       </c>
       <c r="J30" t="n">
-        <v>211.9900549976047</v>
+        <v>116.6082092902635</v>
       </c>
       <c r="K30" t="n">
-        <v>575.2436454601398</v>
+        <v>479.8617997527987</v>
       </c>
       <c r="L30" t="n">
-        <v>821.7289618353834</v>
+        <v>1029.705476693874</v>
       </c>
       <c r="M30" t="n">
-        <v>1054.301806902649</v>
+        <v>1262.278321761139</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.438808052493</v>
+        <v>1515.415322910983</v>
       </c>
       <c r="O30" t="n">
-        <v>1906.713610662507</v>
+        <v>2114.690125520997</v>
       </c>
       <c r="P30" t="n">
-        <v>2370.681405079501</v>
+        <v>2578.657919937991</v>
       </c>
       <c r="Q30" t="n">
         <v>2628.133819173087</v>
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>565.973767664132</v>
+        <v>565.9737676641309</v>
       </c>
       <c r="C31" t="n">
-        <v>477.2711314302716</v>
+        <v>477.2711314302715</v>
       </c>
       <c r="D31" t="n">
-        <v>407.3880387119833</v>
+        <v>407.3880387119832</v>
       </c>
       <c r="E31" t="n">
         <v>339.7084918236376</v>
       </c>
       <c r="F31" t="n">
-        <v>273.0520910197748</v>
+        <v>273.0520910197747</v>
       </c>
       <c r="G31" t="n">
         <v>184.8579729533936</v>
       </c>
       <c r="H31" t="n">
-        <v>112.429951809169</v>
+        <v>112.4299518091689</v>
       </c>
       <c r="I31" t="n">
-        <v>73.5402624936704</v>
+        <v>73.54026249367037</v>
       </c>
       <c r="J31" t="n">
-        <v>147.0742273486942</v>
+        <v>147.074227348694</v>
       </c>
       <c r="K31" t="n">
-        <v>347.1622746287835</v>
+        <v>347.1622746287833</v>
       </c>
       <c r="L31" t="n">
         <v>636.7412638312883</v>
       </c>
       <c r="M31" t="n">
-        <v>948.1761437746238</v>
+        <v>948.1761437746236</v>
       </c>
       <c r="N31" t="n">
         <v>1259.510224484782</v>
@@ -6640,31 +6640,31 @@
         <v>1762.388596593011</v>
       </c>
       <c r="Q31" t="n">
-        <v>1859.149139560522</v>
+        <v>1859.149139560521</v>
       </c>
       <c r="R31" t="n">
-        <v>1816.961320317191</v>
+        <v>1816.96132031719</v>
       </c>
       <c r="S31" t="n">
-        <v>1692.877205246448</v>
+        <v>1692.877205246447</v>
       </c>
       <c r="T31" t="n">
-        <v>1548.247143568937</v>
+        <v>1548.247143568936</v>
       </c>
       <c r="U31" t="n">
-        <v>1339.338287308529</v>
+        <v>1339.338287308528</v>
       </c>
       <c r="V31" t="n">
         <v>1164.887345796689</v>
       </c>
       <c r="W31" t="n">
-        <v>955.703722453776</v>
+        <v>955.7037224537756</v>
       </c>
       <c r="X31" t="n">
-        <v>807.9477182498061</v>
+        <v>807.9477182498058</v>
       </c>
       <c r="Y31" t="n">
-        <v>667.3886858003242</v>
+        <v>667.3886858003232</v>
       </c>
     </row>
     <row r="32">
@@ -6680,49 +6680,49 @@
         <v>1582.292511914892</v>
       </c>
       <c r="D32" t="n">
-        <v>1304.260360002189</v>
+        <v>1304.260360002188</v>
       </c>
       <c r="E32" t="n">
-        <v>998.7056540979925</v>
+        <v>998.7056540979917</v>
       </c>
       <c r="F32" t="n">
-        <v>667.9532960024324</v>
+        <v>667.9532960024314</v>
       </c>
       <c r="G32" t="n">
-        <v>331.4985125508317</v>
+        <v>331.4985125508313</v>
       </c>
       <c r="H32" t="n">
-        <v>97.59982789946166</v>
+        <v>97.5998278994617</v>
       </c>
       <c r="I32" t="n">
         <v>73.5402624936704</v>
       </c>
       <c r="J32" t="n">
-        <v>128.0028004044474</v>
+        <v>295.4084494248004</v>
       </c>
       <c r="K32" t="n">
-        <v>581.2705034676118</v>
+        <v>748.6761524879648</v>
       </c>
       <c r="L32" t="n">
-        <v>1195.865797331704</v>
+        <v>1363.271446352057</v>
       </c>
       <c r="M32" t="n">
-        <v>1569.063554346092</v>
+        <v>2063.733676084099</v>
       </c>
       <c r="N32" t="n">
-        <v>2266.227997720101</v>
+        <v>2609.401439655725</v>
       </c>
       <c r="O32" t="n">
-        <v>2879.352974511412</v>
+        <v>3222.526416447035</v>
       </c>
       <c r="P32" t="n">
-        <v>3364.966574147586</v>
+        <v>3389.559294993443</v>
       </c>
       <c r="Q32" t="n">
-        <v>3652.420403837663</v>
+        <v>3677.01312468352</v>
       </c>
       <c r="R32" t="n">
-        <v>3677.013124683519</v>
+        <v>3677.01312468352</v>
       </c>
       <c r="S32" t="n">
         <v>3610.134137617859</v>
@@ -6743,7 +6743,7 @@
         <v>2487.293560813095</v>
       </c>
       <c r="Y32" t="n">
-        <v>2177.387775531331</v>
+        <v>2177.38777553133</v>
       </c>
     </row>
     <row r="33">
@@ -6777,25 +6777,25 @@
         <v>73.5402624936704</v>
       </c>
       <c r="J33" t="n">
-        <v>211.9900549976047</v>
+        <v>116.6082092902635</v>
       </c>
       <c r="K33" t="n">
-        <v>575.2436454601398</v>
+        <v>479.8617997527987</v>
       </c>
       <c r="L33" t="n">
-        <v>1125.087322401215</v>
+        <v>1029.705476693874</v>
       </c>
       <c r="M33" t="n">
-        <v>1444.225502986611</v>
+        <v>1262.278321761139</v>
       </c>
       <c r="N33" t="n">
-        <v>1697.362504136455</v>
+        <v>1515.415322910983</v>
       </c>
       <c r="O33" t="n">
-        <v>1906.713610662507</v>
+        <v>2114.690125520997</v>
       </c>
       <c r="P33" t="n">
-        <v>2370.681405079501</v>
+        <v>2578.657919937991</v>
       </c>
       <c r="Q33" t="n">
         <v>2628.133819173087</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>565.9737676641307</v>
+        <v>565.9737676641309</v>
       </c>
       <c r="C34" t="n">
-        <v>477.2711314302713</v>
+        <v>477.2711314302714</v>
       </c>
       <c r="D34" t="n">
         <v>407.3880387119831</v>
       </c>
       <c r="E34" t="n">
-        <v>339.7084918236375</v>
+        <v>339.7084918236374</v>
       </c>
       <c r="F34" t="n">
-        <v>273.0520910197746</v>
+        <v>273.0520910197745</v>
       </c>
       <c r="G34" t="n">
-        <v>184.8579729533935</v>
+        <v>184.8579729533933</v>
       </c>
       <c r="H34" t="n">
         <v>112.4299518091689</v>
@@ -6856,19 +6856,19 @@
         <v>73.5402624936704</v>
       </c>
       <c r="J34" t="n">
-        <v>147.0742273486941</v>
+        <v>147.0742273486942</v>
       </c>
       <c r="K34" t="n">
-        <v>347.1622746287834</v>
+        <v>347.1622746287836</v>
       </c>
       <c r="L34" t="n">
-        <v>636.7412638312884</v>
+        <v>636.7412638312885</v>
       </c>
       <c r="M34" t="n">
-        <v>948.1761437746238</v>
+        <v>948.1761437746239</v>
       </c>
       <c r="N34" t="n">
-        <v>1259.510224484782</v>
+        <v>1259.510224484783</v>
       </c>
       <c r="O34" t="n">
         <v>1537.064338418641</v>
@@ -6880,13 +6880,13 @@
         <v>1859.149139560522</v>
       </c>
       <c r="R34" t="n">
-        <v>1816.96132031719</v>
+        <v>1816.961320317191</v>
       </c>
       <c r="S34" t="n">
-        <v>1692.877205246447</v>
+        <v>1692.877205246448</v>
       </c>
       <c r="T34" t="n">
-        <v>1548.247143568936</v>
+        <v>1548.247143568937</v>
       </c>
       <c r="U34" t="n">
         <v>1339.338287308528</v>
@@ -6895,13 +6895,13 @@
         <v>1164.887345796689</v>
       </c>
       <c r="W34" t="n">
-        <v>955.7037224537754</v>
+        <v>955.7037224537759</v>
       </c>
       <c r="X34" t="n">
-        <v>807.9477182498056</v>
+        <v>807.9477182498058</v>
       </c>
       <c r="Y34" t="n">
-        <v>667.3886858003229</v>
+        <v>667.3886858003232</v>
       </c>
     </row>
     <row r="35">
@@ -6917,13 +6917,13 @@
         <v>1204.238717623145</v>
       </c>
       <c r="D35" t="n">
-        <v>993.0855527761026</v>
+        <v>993.0855527761023</v>
       </c>
       <c r="E35" t="n">
-        <v>754.4098339375662</v>
+        <v>754.409833937566</v>
       </c>
       <c r="F35" t="n">
-        <v>490.5364629076665</v>
+        <v>490.5364629076662</v>
       </c>
       <c r="G35" t="n">
         <v>220.9606665217257</v>
@@ -6938,22 +6938,22 @@
         <v>108.4035068467936</v>
       </c>
       <c r="K35" t="n">
-        <v>242.3937861001003</v>
+        <v>240.767251464505</v>
       </c>
       <c r="L35" t="n">
-        <v>856.989079964192</v>
+        <v>855.3625453285966</v>
       </c>
       <c r="M35" t="n">
-        <v>1524.508570547398</v>
+        <v>1522.882035911802</v>
       </c>
       <c r="N35" t="n">
-        <v>2192.028061130603</v>
+        <v>2190.401526495008</v>
       </c>
       <c r="O35" t="n">
-        <v>2428.160858471796</v>
+        <v>2426.534323836201</v>
       </c>
       <c r="P35" t="n">
-        <v>2595.193737018203</v>
+        <v>2593.567202382608</v>
       </c>
       <c r="Q35" t="n">
         <v>2672.455725954974</v>
@@ -6968,13 +6968,13 @@
         <v>2631.109718285716</v>
       </c>
       <c r="U35" t="n">
-        <v>2524.562504920009</v>
+        <v>2524.562504920008</v>
       </c>
       <c r="V35" t="n">
-        <v>2340.612151336146</v>
+        <v>2340.612151336145</v>
       </c>
       <c r="W35" t="n">
-        <v>2134.95602982574</v>
+        <v>2134.956029825739</v>
       </c>
       <c r="X35" t="n">
         <v>1908.602805324367</v>
@@ -7002,37 +7002,37 @@
         <v>475.1013659734989</v>
       </c>
       <c r="F36" t="n">
-        <v>328.5668080003839</v>
+        <v>328.5668080003838</v>
       </c>
       <c r="G36" t="n">
         <v>191.3391358172531</v>
       </c>
       <c r="H36" t="n">
-        <v>92.48729593459855</v>
+        <v>92.48729593459854</v>
       </c>
       <c r="I36" t="n">
         <v>53.94096893601661</v>
       </c>
       <c r="J36" t="n">
-        <v>192.3907614399509</v>
+        <v>67.56063645294611</v>
       </c>
       <c r="K36" t="n">
-        <v>555.6443519024861</v>
+        <v>430.8142269154813</v>
       </c>
       <c r="L36" t="n">
-        <v>1105.488028843562</v>
+        <v>980.6579038565567</v>
       </c>
       <c r="M36" t="n">
-        <v>1338.060873910827</v>
+        <v>1242.679028203486</v>
       </c>
       <c r="N36" t="n">
-        <v>1591.197875060671</v>
+        <v>1495.81602935333</v>
       </c>
       <c r="O36" t="n">
-        <v>1887.114317104853</v>
+        <v>2095.090831963344</v>
       </c>
       <c r="P36" t="n">
-        <v>2351.082111521847</v>
+        <v>2559.058626380338</v>
       </c>
       <c r="Q36" t="n">
         <v>2608.534525615434</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>205.3768636968005</v>
+        <v>106.4334486588142</v>
       </c>
       <c r="C37" t="n">
-        <v>183.5532145286014</v>
+        <v>84.60979949061507</v>
       </c>
       <c r="D37" t="n">
-        <v>81.60569383798713</v>
+        <v>81.60569383798712</v>
       </c>
       <c r="E37" t="n">
-        <v>80.80513401530179</v>
+        <v>80.80513401530177</v>
       </c>
       <c r="F37" t="n">
-        <v>80.80513401530179</v>
+        <v>80.80513401530177</v>
       </c>
       <c r="G37" t="n">
-        <v>59.49000301458098</v>
+        <v>59.49000301458097</v>
       </c>
       <c r="H37" t="n">
         <v>53.94096893601661</v>
@@ -7099,46 +7099,46 @@
         <v>175.39211710127</v>
       </c>
       <c r="L37" t="n">
-        <v>386.334207188939</v>
+        <v>386.3342071889391</v>
       </c>
       <c r="M37" t="n">
-        <v>619.1321880174386</v>
+        <v>619.1321880174387</v>
       </c>
       <c r="N37" t="n">
-        <v>851.8293696127612</v>
+        <v>851.8293696127614</v>
       </c>
       <c r="O37" t="n">
         <v>1050.746584431784</v>
       </c>
       <c r="P37" t="n">
-        <v>1197.433943491318</v>
+        <v>1197.433943491319</v>
       </c>
       <c r="Q37" t="n">
-        <v>1215.557587343993</v>
+        <v>1215.557587343994</v>
       </c>
       <c r="R37" t="n">
-        <v>1215.557587343993</v>
+        <v>1215.557587343994</v>
       </c>
       <c r="S37" t="n">
-        <v>1158.352459338911</v>
+        <v>1011.239925579203</v>
       </c>
       <c r="T37" t="n">
-        <v>1080.601384727059</v>
+        <v>933.4888509673523</v>
       </c>
       <c r="U37" t="n">
-        <v>791.458981772604</v>
+        <v>791.4589817726046</v>
       </c>
       <c r="V37" t="n">
-        <v>683.8870273264249</v>
+        <v>536.7744935667178</v>
       </c>
       <c r="W37" t="n">
-        <v>541.5823910491721</v>
+        <v>394.4698572894649</v>
       </c>
       <c r="X37" t="n">
-        <v>460.7053739108625</v>
+        <v>313.5928401511554</v>
       </c>
       <c r="Y37" t="n">
-        <v>387.0253285270402</v>
+        <v>239.912794767333</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1426.088700803848</v>
+        <v>1426.088700803849</v>
       </c>
       <c r="C38" t="n">
-        <v>1204.238717623144</v>
+        <v>1204.238717623145</v>
       </c>
       <c r="D38" t="n">
-        <v>993.0855527761015</v>
+        <v>993.0855527761025</v>
       </c>
       <c r="E38" t="n">
-        <v>754.4098339375651</v>
+        <v>754.4098339375661</v>
       </c>
       <c r="F38" t="n">
-        <v>490.5364629076653</v>
+        <v>490.5364629076663</v>
       </c>
       <c r="G38" t="n">
         <v>220.9606665217257</v>
       </c>
       <c r="H38" t="n">
-        <v>53.94096893601659</v>
+        <v>53.94096893601661</v>
       </c>
       <c r="I38" t="n">
-        <v>53.94096893601659</v>
+        <v>53.94096893601661</v>
       </c>
       <c r="J38" t="n">
-        <v>252.1307858188016</v>
+        <v>108.4035068467936</v>
       </c>
       <c r="K38" t="n">
-        <v>705.3984888819659</v>
+        <v>240.767251464505</v>
       </c>
       <c r="L38" t="n">
-        <v>1319.993782746058</v>
+        <v>855.3625453285966</v>
       </c>
       <c r="M38" t="n">
-        <v>1575.437614320196</v>
+        <v>1110.806376902735</v>
       </c>
       <c r="N38" t="n">
-        <v>1839.62860252634</v>
+        <v>1778.32586748594</v>
       </c>
       <c r="O38" t="n">
-        <v>2452.753579317651</v>
+        <v>2391.450844277251</v>
       </c>
       <c r="P38" t="n">
-        <v>2619.786457864058</v>
+        <v>2558.483722823658</v>
       </c>
       <c r="Q38" t="n">
-        <v>2697.048446800829</v>
+        <v>2697.04844680083</v>
       </c>
       <c r="R38" t="n">
-        <v>2697.048446800829</v>
+        <v>2697.04844680083</v>
       </c>
       <c r="S38" t="n">
-        <v>2697.048446800829</v>
+        <v>2697.04844680083</v>
       </c>
       <c r="T38" t="n">
-        <v>2631.109718285715</v>
+        <v>2631.109718285716</v>
       </c>
       <c r="U38" t="n">
-        <v>2524.562504920007</v>
+        <v>2524.562504920009</v>
       </c>
       <c r="V38" t="n">
-        <v>2340.612151336144</v>
+        <v>2340.612151336146</v>
       </c>
       <c r="W38" t="n">
-        <v>2134.956029825738</v>
+        <v>2134.956029825739</v>
       </c>
       <c r="X38" t="n">
-        <v>1908.602805324366</v>
+        <v>1908.602805324367</v>
       </c>
       <c r="Y38" t="n">
-        <v>1665.576007108262</v>
+        <v>1665.576007108263</v>
       </c>
     </row>
     <row r="39">
@@ -7239,7 +7239,7 @@
         <v>475.1013659734989</v>
       </c>
       <c r="F39" t="n">
-        <v>328.5668080003839</v>
+        <v>328.5668080003838</v>
       </c>
       <c r="G39" t="n">
         <v>191.3391358172531</v>
@@ -7248,25 +7248,25 @@
         <v>92.48729593459854</v>
       </c>
       <c r="I39" t="n">
-        <v>53.94096893601659</v>
+        <v>53.94096893601661</v>
       </c>
       <c r="J39" t="n">
-        <v>192.3907614399508</v>
+        <v>67.56063645294611</v>
       </c>
       <c r="K39" t="n">
-        <v>555.6443519024861</v>
+        <v>430.8142269154813</v>
       </c>
       <c r="L39" t="n">
-        <v>1105.488028843562</v>
+        <v>980.6579038565567</v>
       </c>
       <c r="M39" t="n">
-        <v>1773.007519426767</v>
+        <v>1213.230748923822</v>
       </c>
       <c r="N39" t="n">
-        <v>2201.01786639083</v>
+        <v>1495.81602935333</v>
       </c>
       <c r="O39" t="n">
-        <v>2410.368972916882</v>
+        <v>2095.090831963344</v>
       </c>
       <c r="P39" t="n">
         <v>2559.058626380338</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>352.4893974565084</v>
+        <v>499.6019312162165</v>
       </c>
       <c r="C40" t="n">
-        <v>330.6657482883092</v>
+        <v>330.6657482883096</v>
       </c>
       <c r="D40" t="n">
-        <v>327.6616426356812</v>
+        <v>327.6616426356816</v>
       </c>
       <c r="E40" t="n">
-        <v>326.8610828129959</v>
+        <v>326.8610828129963</v>
       </c>
       <c r="F40" t="n">
-        <v>326.8610828129959</v>
+        <v>326.8610828129963</v>
       </c>
       <c r="G40" t="n">
-        <v>305.5459518122751</v>
+        <v>305.5459518122755</v>
       </c>
       <c r="H40" t="n">
-        <v>152.884383974003</v>
+        <v>173.0642049455626</v>
       </c>
       <c r="I40" t="n">
-        <v>53.94096893601659</v>
+        <v>53.94096893601661</v>
       </c>
       <c r="J40" t="n">
-        <v>53.94096893601659</v>
+        <v>53.94096893601661</v>
       </c>
       <c r="K40" t="n">
         <v>175.39211710127</v>
       </c>
       <c r="L40" t="n">
-        <v>386.334207188939</v>
+        <v>386.3342071889391</v>
       </c>
       <c r="M40" t="n">
-        <v>619.1321880174386</v>
+        <v>619.1321880174387</v>
       </c>
       <c r="N40" t="n">
-        <v>851.8293696127612</v>
+        <v>851.8293696127614</v>
       </c>
       <c r="O40" t="n">
         <v>1050.746584431784</v>
       </c>
       <c r="P40" t="n">
-        <v>1197.433943491318</v>
+        <v>1197.433943491319</v>
       </c>
       <c r="Q40" t="n">
-        <v>1215.557587343993</v>
+        <v>1215.557587343994</v>
       </c>
       <c r="R40" t="n">
-        <v>1215.557587343993</v>
+        <v>1215.557587343994</v>
       </c>
       <c r="S40" t="n">
         <v>1158.352459338911</v>
       </c>
       <c r="T40" t="n">
-        <v>1080.601384727059</v>
+        <v>1080.60138472706</v>
       </c>
       <c r="U40" t="n">
-        <v>938.5715155323119</v>
+        <v>938.5715155323123</v>
       </c>
       <c r="V40" t="n">
-        <v>830.9995610861328</v>
+        <v>830.9995610861332</v>
       </c>
       <c r="W40" t="n">
-        <v>541.5823910491722</v>
+        <v>688.6949248088804</v>
       </c>
       <c r="X40" t="n">
-        <v>460.7053739108626</v>
+        <v>607.8179076705708</v>
       </c>
       <c r="Y40" t="n">
-        <v>387.0253285270403</v>
+        <v>534.1378622867485</v>
       </c>
     </row>
     <row r="41">
@@ -7391,7 +7391,7 @@
         <v>1204.238717623144</v>
       </c>
       <c r="D41" t="n">
-        <v>993.0855527761014</v>
+        <v>993.0855527761015</v>
       </c>
       <c r="E41" t="n">
         <v>754.4098339375651</v>
@@ -7412,22 +7412,22 @@
         <v>275.8091558671466</v>
       </c>
       <c r="K41" t="n">
-        <v>408.1729004848579</v>
+        <v>729.076858930311</v>
       </c>
       <c r="L41" t="n">
-        <v>1022.76819434895</v>
+        <v>1168.213400353102</v>
       </c>
       <c r="M41" t="n">
-        <v>1278.212025923088</v>
+        <v>1423.65723192724</v>
       </c>
       <c r="N41" t="n">
-        <v>1839.62860252634</v>
+        <v>1687.848220133385</v>
       </c>
       <c r="O41" t="n">
-        <v>2452.753579317651</v>
+        <v>1923.981017474578</v>
       </c>
       <c r="P41" t="n">
-        <v>2619.786457864058</v>
+        <v>2409.594617110753</v>
       </c>
       <c r="Q41" t="n">
         <v>2697.048446800829</v>
@@ -7442,10 +7442,10 @@
         <v>2631.109718285715</v>
       </c>
       <c r="U41" t="n">
-        <v>2524.562504920007</v>
+        <v>2524.562504920008</v>
       </c>
       <c r="V41" t="n">
-        <v>2340.612151336144</v>
+        <v>2340.612151336145</v>
       </c>
       <c r="W41" t="n">
         <v>2134.956029825738</v>
@@ -7476,13 +7476,13 @@
         <v>475.1013659734989</v>
       </c>
       <c r="F42" t="n">
-        <v>328.5668080003839</v>
+        <v>328.5668080003838</v>
       </c>
       <c r="G42" t="n">
         <v>191.3391358172531</v>
       </c>
       <c r="H42" t="n">
-        <v>92.48729593459854</v>
+        <v>92.48729593459852</v>
       </c>
       <c r="I42" t="n">
         <v>53.94096893601659</v>
@@ -7500,13 +7500,13 @@
         <v>1511.186934784314</v>
       </c>
       <c r="N42" t="n">
-        <v>1993.04135153234</v>
+        <v>1764.323935934158</v>
       </c>
       <c r="O42" t="n">
-        <v>2202.392458058391</v>
+        <v>2363.598738544172</v>
       </c>
       <c r="P42" t="n">
-        <v>2351.082111521847</v>
+        <v>2512.288392007628</v>
       </c>
       <c r="Q42" t="n">
         <v>2608.534525615434</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>106.4334486588142</v>
+        <v>352.4893974565088</v>
       </c>
       <c r="C43" t="n">
-        <v>84.60979949061506</v>
+        <v>330.6657482883096</v>
       </c>
       <c r="D43" t="n">
-        <v>81.6056938379871</v>
+        <v>180.5491088759739</v>
       </c>
       <c r="E43" t="n">
-        <v>80.80513401530176</v>
+        <v>179.7485490532885</v>
       </c>
       <c r="F43" t="n">
-        <v>80.80513401530176</v>
+        <v>179.7485490532885</v>
       </c>
       <c r="G43" t="n">
-        <v>59.49000301458096</v>
+        <v>158.4334180525677</v>
       </c>
       <c r="H43" t="n">
         <v>53.94096893601659</v>
@@ -7576,43 +7576,43 @@
         <v>386.334207188939</v>
       </c>
       <c r="M43" t="n">
-        <v>619.1321880174386</v>
+        <v>619.1321880174387</v>
       </c>
       <c r="N43" t="n">
-        <v>851.8293696127612</v>
+        <v>851.8293696127614</v>
       </c>
       <c r="O43" t="n">
         <v>1050.746584431784</v>
       </c>
       <c r="P43" t="n">
-        <v>1197.433943491318</v>
+        <v>1197.433943491319</v>
       </c>
       <c r="Q43" t="n">
-        <v>1215.557587343993</v>
+        <v>1215.557587343994</v>
       </c>
       <c r="R43" t="n">
-        <v>1215.557587343993</v>
+        <v>1215.557587343994</v>
       </c>
       <c r="S43" t="n">
-        <v>1011.239925579203</v>
+        <v>1158.352459338911</v>
       </c>
       <c r="T43" t="n">
-        <v>786.376317207644</v>
+        <v>1080.60138472706</v>
       </c>
       <c r="U43" t="n">
-        <v>545.40303297491</v>
+        <v>938.5715155323123</v>
       </c>
       <c r="V43" t="n">
-        <v>437.8310785287309</v>
+        <v>830.9995610861332</v>
       </c>
       <c r="W43" t="n">
-        <v>295.526442251478</v>
+        <v>688.6949248088804</v>
       </c>
       <c r="X43" t="n">
-        <v>214.6494251131685</v>
+        <v>607.8179076705708</v>
       </c>
       <c r="Y43" t="n">
-        <v>140.9693797293461</v>
+        <v>534.1378622867485</v>
       </c>
     </row>
     <row r="44">
@@ -7625,13 +7625,13 @@
         <v>1426.088700803848</v>
       </c>
       <c r="C44" t="n">
-        <v>1204.238717623144</v>
+        <v>1204.238717623145</v>
       </c>
       <c r="D44" t="n">
-        <v>993.0855527761018</v>
+        <v>993.0855527761017</v>
       </c>
       <c r="E44" t="n">
-        <v>754.4098339375655</v>
+        <v>754.4098339375653</v>
       </c>
       <c r="F44" t="n">
         <v>490.5364629076655</v>
@@ -7646,25 +7646,25 @@
         <v>53.94096893601659</v>
       </c>
       <c r="J44" t="n">
-        <v>108.4035068467936</v>
+        <v>275.8091558671466</v>
       </c>
       <c r="K44" t="n">
-        <v>561.671209909958</v>
+        <v>408.1729004848579</v>
       </c>
       <c r="L44" t="n">
-        <v>881.5818008100474</v>
+        <v>1022.76819434895</v>
       </c>
       <c r="M44" t="n">
-        <v>1549.101291393253</v>
+        <v>1278.212025923088</v>
       </c>
       <c r="N44" t="n">
-        <v>2216.620781976458</v>
+        <v>1542.403014129232</v>
       </c>
       <c r="O44" t="n">
-        <v>2452.753579317651</v>
+        <v>1923.981017474578</v>
       </c>
       <c r="P44" t="n">
-        <v>2619.786457864058</v>
+        <v>2409.594617110753</v>
       </c>
       <c r="Q44" t="n">
         <v>2697.048446800829</v>
@@ -7679,16 +7679,16 @@
         <v>2631.109718285715</v>
       </c>
       <c r="U44" t="n">
-        <v>2524.562504920008</v>
+        <v>2524.562504920007</v>
       </c>
       <c r="V44" t="n">
-        <v>2340.612151336145</v>
+        <v>2340.612151336144</v>
       </c>
       <c r="W44" t="n">
-        <v>2134.956029825738</v>
+        <v>2134.956029825737</v>
       </c>
       <c r="X44" t="n">
-        <v>1908.602805324366</v>
+        <v>1908.602805324365</v>
       </c>
       <c r="Y44" t="n">
         <v>1665.576007108262</v>
@@ -7713,13 +7713,13 @@
         <v>475.1013659734989</v>
       </c>
       <c r="F45" t="n">
-        <v>328.5668080003839</v>
+        <v>328.5668080003838</v>
       </c>
       <c r="G45" t="n">
         <v>191.3391358172531</v>
       </c>
       <c r="H45" t="n">
-        <v>92.48729593459854</v>
+        <v>92.48729593459852</v>
       </c>
       <c r="I45" t="n">
         <v>53.94096893601659</v>
@@ -7728,19 +7728,19 @@
         <v>192.3907614399508</v>
       </c>
       <c r="K45" t="n">
-        <v>555.6443519024861</v>
+        <v>293.8237672600332</v>
       </c>
       <c r="L45" t="n">
-        <v>1105.488028843562</v>
+        <v>843.6674442011085</v>
       </c>
       <c r="M45" t="n">
-        <v>1424.626209428958</v>
+        <v>1349.980654298533</v>
       </c>
       <c r="N45" t="n">
-        <v>1677.763210578802</v>
+        <v>1603.117655448377</v>
       </c>
       <c r="O45" t="n">
-        <v>1887.114317104853</v>
+        <v>2202.392458058391</v>
       </c>
       <c r="P45" t="n">
         <v>2351.082111521847</v>
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>499.6019312162161</v>
+        <v>352.4893974565088</v>
       </c>
       <c r="C46" t="n">
-        <v>477.7782820480169</v>
+        <v>236.9288777455908</v>
       </c>
       <c r="D46" t="n">
-        <v>474.774176395389</v>
+        <v>233.9247720929629</v>
       </c>
       <c r="E46" t="n">
-        <v>473.9736165727036</v>
+        <v>233.1242122702775</v>
       </c>
       <c r="F46" t="n">
-        <v>473.9736165727036</v>
+        <v>233.1242122702775</v>
       </c>
       <c r="G46" t="n">
-        <v>305.5459518122751</v>
+        <v>211.8090812695567</v>
       </c>
       <c r="H46" t="n">
-        <v>173.0642049455626</v>
+        <v>59.14751343128457</v>
       </c>
       <c r="I46" t="n">
-        <v>53.94096893601659</v>
+        <v>59.14751343128457</v>
       </c>
       <c r="J46" t="n">
         <v>53.94096893601659</v>
@@ -7813,43 +7813,43 @@
         <v>386.334207188939</v>
       </c>
       <c r="M46" t="n">
-        <v>619.1321880174386</v>
+        <v>619.1321880174387</v>
       </c>
       <c r="N46" t="n">
-        <v>851.8293696127612</v>
+        <v>851.8293696127614</v>
       </c>
       <c r="O46" t="n">
         <v>1050.746584431784</v>
       </c>
       <c r="P46" t="n">
-        <v>1197.433943491318</v>
+        <v>1197.433943491319</v>
       </c>
       <c r="Q46" t="n">
-        <v>1215.557587343993</v>
+        <v>1215.557587343994</v>
       </c>
       <c r="R46" t="n">
-        <v>1215.557587343993</v>
+        <v>1215.557587343994</v>
       </c>
       <c r="S46" t="n">
         <v>1158.352459338911</v>
       </c>
       <c r="T46" t="n">
-        <v>1080.601384727059</v>
+        <v>933.4888509673522</v>
       </c>
       <c r="U46" t="n">
-        <v>938.5715155323119</v>
+        <v>791.4589817726046</v>
       </c>
       <c r="V46" t="n">
-        <v>830.9995610861328</v>
+        <v>683.8870273264255</v>
       </c>
       <c r="W46" t="n">
-        <v>688.6949248088799</v>
+        <v>541.5823910491727</v>
       </c>
       <c r="X46" t="n">
-        <v>607.8179076705703</v>
+        <v>460.7053739108631</v>
       </c>
       <c r="Y46" t="n">
-        <v>534.137862286748</v>
+        <v>387.0253285270408</v>
       </c>
     </row>
   </sheetData>
@@ -8690,10 +8690,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>180.8205403740233</v>
       </c>
       <c r="L11" t="n">
-        <v>178.4738359743399</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8705,7 +8705,7 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8766,13 +8766,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>208.4901148889129</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8781,13 +8781,13 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>372.1522779934581</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>26.69919758177647</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8927,25 +8927,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>380.475929576191</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>325.5939698640776</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>178.4738359743401</v>
       </c>
       <c r="P14" t="n">
-        <v>8.864339765140727</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9009,7 +9009,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>188.7741878393847</v>
+        <v>188.7741878393845</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9161,25 +9161,25 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>325.5939698640776</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>69.08133645999209</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>345.1000650488708</v>
+        <v>345.1000650488709</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>239.6265089249791</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -9243,10 +9243,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>291.1644345943543</v>
+        <v>188.7741878393851</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9255,13 +9255,13 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>372.152277993458</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9398,13 +9398,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>25.77174297493158</v>
       </c>
       <c r="K20" t="n">
-        <v>158.4548597524211</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>380.4759295761911</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -9413,13 +9413,13 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>345.1000650488708</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9498,7 +9498,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>154.1021656121835</v>
+        <v>154.102165612184</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
@@ -9644,22 +9644,22 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>371.9499590028349</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>363.1144472533337</v>
       </c>
       <c r="O23" t="n">
-        <v>40.22611509975414</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>33.21315501457929</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>40.875287705451</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9720,19 +9720,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>1.484829832822015</v>
+        <v>395.0519655754337</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>295.7359782007857</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9872,10 +9872,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>230.7313609363249</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
@@ -9887,13 +9887,13 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>227.7732319674114</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
         <v>40.875287705451</v>
@@ -9951,7 +9951,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>29.74573664612485</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9966,13 +9966,13 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>87.43973284659654</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10118,22 +10118,22 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>387.1936682704672</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>228.3846565366414</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>40.875287705451</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10188,13 +10188,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>29.74573664612489</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>64.41775887332614</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10209,7 +10209,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10355,22 +10355,22 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>118.9433590305561</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>284.3199751166481</v>
       </c>
       <c r="O32" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>40.87528770545097</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,7 +10425,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>29.74573664612486</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10434,19 +10434,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>87.43973284659666</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10586,13 +10586,13 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>1.642964278379225</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>416.2380394030985</v>
+        <v>416.2380394030984</v>
       </c>
       <c r="N35" t="n">
         <v>407.4025276535971</v>
@@ -10604,7 +10604,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>1.64296427837877</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10662,7 +10662,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10671,19 +10671,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>29.74573664612529</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>87.43973284659705</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10820,10 +10820,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>145.179069668695</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10832,7 +10832,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>407.4025276535971</v>
       </c>
       <c r="O38" t="n">
         <v>380.8001812627454</v>
@@ -10841,10 +10841,10 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>61.92195458626313</v>
       </c>
       <c r="R38" t="n">
-        <v>40.875287705451</v>
+        <v>40.87528770545097</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,7 +10899,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10908,16 +10908,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>439.340045975697</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>176.6397432466863</v>
+        <v>29.74573664612538</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -11060,28 +11060,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>240.4301514784298</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>300.2278670677861</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>40.875287705451</v>
+        <v>40.87528770545097</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11145,19 +11145,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>439.340045975697</v>
+        <v>439.3400459756969</v>
       </c>
       <c r="N42" t="n">
-        <v>231.027692523416</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>47.24266098253545</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11294,31 +11294,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>119.9998984251957</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>416.2380394030982</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>407.4025276535969</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>146.914349499144</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>40.875287705451</v>
+        <v>40.87528770545097</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,22 +11376,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>87.43973284659711</v>
+        <v>276.5054192223831</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23258,25 +23258,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>285.8416805439006</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>275.251830393576</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>302.4991588451548</v>
       </c>
       <c r="F11" t="n">
         <v>327.4448345146045</v>
       </c>
       <c r="G11" t="n">
-        <v>333.0902356170841</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>23.81896975173339</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23318,13 +23318,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>65.85659542186565</v>
+        <v>269.809757490306</v>
       </c>
       <c r="X11" t="n">
-        <v>290.299889451362</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>103.7086845534417</v>
       </c>
     </row>
     <row r="12">
@@ -23495,13 +23495,13 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>285.8416805439006</v>
       </c>
       <c r="D14" t="n">
-        <v>275.251830393576</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>302.4991588451548</v>
+        <v>302.4991588451549</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>140.4412443817485</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23543,22 +23543,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>66.21019719500376</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>154.082749218094</v>
       </c>
       <c r="V14" t="n">
-        <v>248.3210472430279</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>269.809757490306</v>
+        <v>269.8097574903061</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>290.2998894513621</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23795,7 +23795,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>179.8983226496885</v>
+        <v>179.898322649689</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23978,7 +23978,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>179.8983226496883</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -24020,13 +24020,13 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>11.00848663376752</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>168.889836015921</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>995901.3808471611</v>
+        <v>995901.3808471612</v>
       </c>
     </row>
     <row r="11">
@@ -26311,10 +26311,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>553011.5286340009</v>
+        <v>553011.5286340008</v>
       </c>
       <c r="C2" t="n">
-        <v>553011.528634001</v>
+        <v>553011.5286340008</v>
       </c>
       <c r="D2" t="n">
         <v>553011.5286340009</v>
@@ -26323,13 +26323,13 @@
         <v>484218.0839123537</v>
       </c>
       <c r="F2" t="n">
-        <v>484218.0839123538</v>
+        <v>484218.0839123534</v>
       </c>
       <c r="G2" t="n">
+        <v>544537.2577824238</v>
+      </c>
+      <c r="H2" t="n">
         <v>544537.2577824234</v>
-      </c>
-      <c r="H2" t="n">
-        <v>544537.2577824236</v>
       </c>
       <c r="I2" t="n">
         <v>554203.1946583914</v>
@@ -26338,22 +26338,22 @@
         <v>554203.1946583923</v>
       </c>
       <c r="K2" t="n">
-        <v>554203.1946583919</v>
+        <v>554203.1946583922</v>
       </c>
       <c r="L2" t="n">
-        <v>554203.1946583925</v>
+        <v>554203.1946583921</v>
       </c>
       <c r="M2" t="n">
-        <v>554203.1946583912</v>
+        <v>554203.1946583911</v>
       </c>
       <c r="N2" t="n">
-        <v>554203.1946583912</v>
+        <v>554203.1946583913</v>
       </c>
       <c r="O2" t="n">
         <v>554203.1946583913</v>
       </c>
       <c r="P2" t="n">
-        <v>554203.1946583913</v>
+        <v>554203.1946583915</v>
       </c>
     </row>
     <row r="3">
@@ -26372,31 +26372,31 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>793631.6724150429</v>
+        <v>793631.6724150428</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>63544.9689816856</v>
+        <v>63544.96898168558</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>12327.03098776742</v>
+        <v>12327.03098776745</v>
       </c>
       <c r="J3" t="n">
-        <v>75688.18005323119</v>
+        <v>75688.18005323122</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>63544.96898168562</v>
+        <v>63544.96898168554</v>
       </c>
       <c r="M3" t="n">
-        <v>137355.3289379699</v>
+        <v>137355.32893797</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26424,10 +26424,10 @@
         <v>436273.8797192482</v>
       </c>
       <c r="E4" t="n">
-        <v>150591.8022177844</v>
+        <v>150591.8022177845</v>
       </c>
       <c r="F4" t="n">
-        <v>150591.8022177844</v>
+        <v>150591.8022177843</v>
       </c>
       <c r="G4" t="n">
         <v>201402.0326272214</v>
@@ -26442,7 +26442,7 @@
         <v>194191.1180738481</v>
       </c>
       <c r="K4" t="n">
-        <v>194191.1180738481</v>
+        <v>194191.118073848</v>
       </c>
       <c r="L4" t="n">
         <v>194191.1180738481</v>
@@ -26451,13 +26451,13 @@
         <v>204259.4638286</v>
       </c>
       <c r="N4" t="n">
+        <v>204259.4638286</v>
+      </c>
+      <c r="O4" t="n">
         <v>204259.4638285999</v>
       </c>
-      <c r="O4" t="n">
-        <v>204259.4638286</v>
-      </c>
       <c r="P4" t="n">
-        <v>204259.4638286</v>
+        <v>204259.4638285999</v>
       </c>
     </row>
     <row r="5">
@@ -26476,10 +26476,10 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>57243.92344591296</v>
+        <v>57243.92344591297</v>
       </c>
       <c r="F5" t="n">
-        <v>57243.92344591296</v>
+        <v>57243.92344591297</v>
       </c>
       <c r="G5" t="n">
         <v>63921.62594256461</v>
@@ -26488,13 +26488,13 @@
         <v>63921.62594256461</v>
       </c>
       <c r="I5" t="n">
-        <v>66740.07008220104</v>
+        <v>66740.07008220105</v>
       </c>
       <c r="J5" t="n">
         <v>77650.54597770231</v>
       </c>
       <c r="K5" t="n">
-        <v>77650.54597770231</v>
+        <v>77650.54597770228</v>
       </c>
       <c r="L5" t="n">
         <v>77650.54597770231</v>
@@ -26503,7 +26503,7 @@
         <v>68321.30794187219</v>
       </c>
       <c r="N5" t="n">
-        <v>68321.30794187218</v>
+        <v>68321.30794187219</v>
       </c>
       <c r="O5" t="n">
         <v>68321.30794187218</v>
@@ -26519,40 +26519,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>83110.04891475276</v>
+        <v>83105.63533688453</v>
       </c>
       <c r="C6" t="n">
-        <v>83110.04891475287</v>
+        <v>83105.63533688453</v>
       </c>
       <c r="D6" t="n">
-        <v>83110.04891475276</v>
+        <v>83105.63533688465</v>
       </c>
       <c r="E6" t="n">
-        <v>-517249.3141663866</v>
+        <v>-517508.5182802607</v>
       </c>
       <c r="F6" t="n">
-        <v>276382.3582486565</v>
+        <v>276123.154134782</v>
       </c>
       <c r="G6" t="n">
-        <v>215668.6302309518</v>
+        <v>215632.8304647449</v>
       </c>
       <c r="H6" t="n">
-        <v>279213.5992126376</v>
+        <v>279177.7994464301</v>
       </c>
       <c r="I6" t="n">
-        <v>268536.9861147617</v>
+        <v>268536.9861147616</v>
       </c>
       <c r="J6" t="n">
         <v>206673.3505536108</v>
       </c>
       <c r="K6" t="n">
-        <v>282361.5306068415</v>
+        <v>282361.530606842</v>
       </c>
       <c r="L6" t="n">
-        <v>218816.5616251564</v>
+        <v>218816.5616251562</v>
       </c>
       <c r="M6" t="n">
-        <v>144267.0939499491</v>
+        <v>144267.0939499489</v>
       </c>
       <c r="N6" t="n">
         <v>281622.4228879191</v>
@@ -26561,7 +26561,7 @@
         <v>281622.4228879192</v>
       </c>
       <c r="P6" t="n">
-        <v>281622.4228879192</v>
+        <v>281622.4228879195</v>
       </c>
     </row>
   </sheetData>
@@ -26692,28 +26692,28 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="F2" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="G2" t="n">
-        <v>158.862422454214</v>
+        <v>158.8624224542139</v>
       </c>
       <c r="H2" t="n">
-        <v>158.862422454214</v>
+        <v>158.8624224542139</v>
       </c>
       <c r="I2" t="n">
-        <v>158.862422454214</v>
+        <v>158.8624224542139</v>
       </c>
       <c r="J2" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="K2" t="n">
         <v>79.43121122710699</v>
       </c>
       <c r="L2" t="n">
-        <v>79.43121122710701</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="M2" t="n">
         <v>145.6414084221107</v>
@@ -26744,10 +26744,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>691.8460543973005</v>
+        <v>691.8460543973003</v>
       </c>
       <c r="F3" t="n">
-        <v>691.8460543973005</v>
+        <v>691.8460543973006</v>
       </c>
       <c r="G3" t="n">
         <v>691.8460543973005</v>
@@ -26765,19 +26765,19 @@
         <v>691.8460543973005</v>
       </c>
       <c r="L3" t="n">
-        <v>691.8460543973005</v>
+        <v>691.8460543973006</v>
       </c>
       <c r="M3" t="n">
-        <v>691.8460543973005</v>
+        <v>691.8460543973006</v>
       </c>
       <c r="N3" t="n">
-        <v>691.8460543973005</v>
+        <v>691.8460543973006</v>
       </c>
       <c r="O3" t="n">
-        <v>691.8460543973005</v>
+        <v>691.8460543973006</v>
       </c>
       <c r="P3" t="n">
-        <v>691.8460543973005</v>
+        <v>691.8460543973006</v>
       </c>
     </row>
     <row r="4">
@@ -26796,34 +26796,34 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>583.6180421611867</v>
+        <v>583.6180421611868</v>
       </c>
       <c r="F4" t="n">
-        <v>583.6180421611867</v>
+        <v>583.6180421611868</v>
       </c>
       <c r="G4" t="n">
-        <v>583.6180421611867</v>
+        <v>583.6180421611868</v>
       </c>
       <c r="H4" t="n">
-        <v>583.6180421611867</v>
+        <v>583.6180421611868</v>
       </c>
       <c r="I4" t="n">
-        <v>629.9740312999438</v>
+        <v>629.974031299944</v>
       </c>
       <c r="J4" t="n">
+        <v>919.2532811708802</v>
+      </c>
+      <c r="K4" t="n">
+        <v>919.2532811708796</v>
+      </c>
+      <c r="L4" t="n">
         <v>919.25328117088</v>
-      </c>
-      <c r="K4" t="n">
-        <v>919.25328117088</v>
-      </c>
-      <c r="L4" t="n">
-        <v>919.2532811708799</v>
       </c>
       <c r="M4" t="n">
         <v>674.2621117002076</v>
       </c>
       <c r="N4" t="n">
-        <v>674.2621117002074</v>
+        <v>674.2621117002076</v>
       </c>
       <c r="O4" t="n">
         <v>674.2621117002074</v>
@@ -26914,14 +26914,14 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
+        <v>79.43121122710699</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
         <v>79.43121122710697</v>
       </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>79.431211227107</v>
-      </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
@@ -26935,10 +26935,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>79.43121122710703</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="M2" t="n">
-        <v>66.21019719500367</v>
+        <v>66.21019719500374</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>691.8460543973005</v>
+        <v>691.8460543973003</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>583.6180421611867</v>
+        <v>583.6180421611868</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,7 +27030,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>46.35598913875708</v>
+        <v>46.3559891387572</v>
       </c>
       <c r="J4" t="n">
         <v>289.2792498709362</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>79.43121122710699</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
         <v>79.43121122710697</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>79.431211227107</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>583.6180421611867</v>
+        <v>583.6180421611868</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="C11" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="D11" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="E11" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="F11" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="G11" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="H11" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="I11" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="T11" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="U11" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="V11" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="W11" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="X11" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="Y11" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710699</v>
       </c>
     </row>
     <row r="12">
@@ -28172,7 +28172,7 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -28181,13 +28181,13 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>79.43121122710697</v>
+        <v>67.11943691067891</v>
       </c>
       <c r="H12" t="n">
-        <v>79.43121122710697</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>25.84908941216855</v>
+        <v>38.16086372859613</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28223,10 +28223,10 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>79.43121122710697</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="C13" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="D13" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="E13" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="F13" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="G13" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="H13" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="I13" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="J13" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="K13" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="L13" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="M13" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="N13" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="O13" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="P13" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="Q13" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="R13" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="S13" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="T13" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="U13" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="V13" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="W13" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="X13" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="Y13" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710699</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="C14" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="D14" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="E14" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="F14" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="G14" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="H14" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="I14" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="T14" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="U14" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="V14" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="W14" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="X14" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="Y14" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710694</v>
       </c>
     </row>
     <row r="15">
@@ -28418,13 +28418,13 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>59.3556852679247</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="H15" t="n">
-        <v>79.43121122710697</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>38.16086372859612</v>
+        <v>38.16086372859611</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -28451,13 +28451,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>7.763751642754556</v>
+        <v>7.763751642754542</v>
       </c>
       <c r="S15" t="n">
-        <v>79.43121122710697</v>
+        <v>59.35568526792385</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="C16" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="D16" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="E16" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="F16" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="G16" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="H16" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="I16" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="J16" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="K16" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="L16" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="M16" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="N16" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="O16" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="P16" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="Q16" t="n">
-        <v>79.4312112271065</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="R16" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="S16" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="T16" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="U16" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="V16" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="W16" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="X16" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="Y16" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710694</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>158.862422454214</v>
+        <v>158.8624224542139</v>
       </c>
       <c r="C17" t="n">
-        <v>158.862422454214</v>
+        <v>158.8624224542139</v>
       </c>
       <c r="D17" t="n">
-        <v>158.862422454214</v>
+        <v>158.8624224542139</v>
       </c>
       <c r="E17" t="n">
-        <v>158.862422454214</v>
+        <v>158.8624224542139</v>
       </c>
       <c r="F17" t="n">
-        <v>158.862422454214</v>
+        <v>158.8624224542139</v>
       </c>
       <c r="G17" t="n">
-        <v>158.862422454214</v>
+        <v>158.8624224542139</v>
       </c>
       <c r="H17" t="n">
-        <v>158.862422454214</v>
+        <v>158.8624224542139</v>
       </c>
       <c r="I17" t="n">
         <v>103.2501809788404</v>
@@ -28615,22 +28615,22 @@
         <v>145.6414084221107</v>
       </c>
       <c r="T17" t="n">
-        <v>158.862422454214</v>
+        <v>158.8624224542139</v>
       </c>
       <c r="U17" t="n">
-        <v>158.862422454214</v>
+        <v>158.8624224542139</v>
       </c>
       <c r="V17" t="n">
-        <v>158.862422454214</v>
+        <v>158.8624224542139</v>
       </c>
       <c r="W17" t="n">
-        <v>158.862422454214</v>
+        <v>158.8624224542139</v>
       </c>
       <c r="X17" t="n">
-        <v>158.862422454214</v>
+        <v>158.8624224542139</v>
       </c>
       <c r="Y17" t="n">
-        <v>158.862422454214</v>
+        <v>158.8624224542139</v>
       </c>
     </row>
     <row r="18">
@@ -28643,7 +28643,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>158.862422454214</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -28658,10 +28658,10 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>97.86332148382802</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>38.16086372859612</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -28691,13 +28691,13 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>128.1185378810649</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>105.2803006392755</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -28719,10 +28719,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>104.7425892056561</v>
+        <v>158.8624224542139</v>
       </c>
       <c r="C19" t="n">
-        <v>158.862422454214</v>
+        <v>158.8624224542139</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -28734,13 +28734,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>158.862422454214</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>151.1349521598894</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>117.9320036494506</v>
+        <v>56.08470010656855</v>
       </c>
       <c r="J19" t="n">
         <v>5.154479050315317</v>
@@ -28770,25 +28770,25 @@
         <v>121.1971522780048</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>158.8624224542139</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>158.8624224542139</v>
       </c>
       <c r="U19" t="n">
-        <v>158.862422454214</v>
+        <v>158.8624224542139</v>
       </c>
       <c r="V19" t="n">
-        <v>158.862422454214</v>
+        <v>158.8624224542139</v>
       </c>
       <c r="W19" t="n">
-        <v>158.862422454214</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>158.862422454214</v>
+        <v>158.8624224542139</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>158.8624224542139</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>158.862422454214</v>
+        <v>158.8624224542139</v>
       </c>
       <c r="C20" t="n">
-        <v>158.862422454214</v>
+        <v>158.8624224542139</v>
       </c>
       <c r="D20" t="n">
-        <v>158.862422454214</v>
+        <v>158.8624224542139</v>
       </c>
       <c r="E20" t="n">
-        <v>158.862422454214</v>
+        <v>158.8624224542139</v>
       </c>
       <c r="F20" t="n">
-        <v>158.862422454214</v>
+        <v>158.8624224542139</v>
       </c>
       <c r="G20" t="n">
-        <v>158.862422454214</v>
+        <v>158.8624224542139</v>
       </c>
       <c r="H20" t="n">
-        <v>158.862422454214</v>
+        <v>158.8624224542139</v>
       </c>
       <c r="I20" t="n">
         <v>103.2501809788404</v>
@@ -28852,22 +28852,22 @@
         <v>145.6414084221107</v>
       </c>
       <c r="T20" t="n">
-        <v>158.862422454214</v>
+        <v>158.8624224542139</v>
       </c>
       <c r="U20" t="n">
-        <v>158.862422454214</v>
+        <v>158.8624224542139</v>
       </c>
       <c r="V20" t="n">
-        <v>158.862422454214</v>
+        <v>158.8624224542139</v>
       </c>
       <c r="W20" t="n">
-        <v>158.862422454214</v>
+        <v>158.8624224542139</v>
       </c>
       <c r="X20" t="n">
-        <v>158.862422454214</v>
+        <v>158.8624224542139</v>
       </c>
       <c r="Y20" t="n">
-        <v>158.862422454214</v>
+        <v>158.8624224542139</v>
       </c>
     </row>
     <row r="21">
@@ -28892,13 +28892,13 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>128.1185378810648</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>97.86332148382802</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>38.16086372859612</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -28928,13 +28928,13 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>144.0419631757948</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>120.1007599176943</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -28956,22 +28956,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>158.862422454214</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>158.862422454214</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>158.862422454214</v>
+        <v>158.8624224542139</v>
       </c>
       <c r="H22" t="n">
         <v>151.1349521598894</v>
@@ -29004,28 +29004,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>121.1971522780048</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>92.31412939801153</v>
       </c>
       <c r="T22" t="n">
-        <v>158.862422454214</v>
+        <v>158.8624224542139</v>
       </c>
       <c r="U22" t="n">
-        <v>158.862422454214</v>
+        <v>158.8624224542139</v>
       </c>
       <c r="V22" t="n">
-        <v>158.862422454214</v>
+        <v>158.8624224542139</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>158.8624224542139</v>
       </c>
       <c r="X22" t="n">
-        <v>67.07731902944693</v>
+        <v>158.8624224542139</v>
       </c>
       <c r="Y22" t="n">
-        <v>158.862422454214</v>
+        <v>158.8624224542139</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>158.862422454214</v>
+        <v>158.8624224542139</v>
       </c>
       <c r="C23" t="n">
-        <v>158.862422454214</v>
+        <v>158.8624224542139</v>
       </c>
       <c r="D23" t="n">
-        <v>158.862422454214</v>
+        <v>158.8624224542139</v>
       </c>
       <c r="E23" t="n">
-        <v>158.862422454214</v>
+        <v>158.8624224542139</v>
       </c>
       <c r="F23" t="n">
-        <v>158.862422454214</v>
+        <v>158.8624224542139</v>
       </c>
       <c r="G23" t="n">
-        <v>158.862422454214</v>
+        <v>158.8624224542139</v>
       </c>
       <c r="H23" t="n">
-        <v>158.862422454214</v>
+        <v>158.8624224542139</v>
       </c>
       <c r="I23" t="n">
         <v>103.2501809788404</v>
@@ -29089,22 +29089,22 @@
         <v>145.6414084221107</v>
       </c>
       <c r="T23" t="n">
-        <v>158.862422454214</v>
+        <v>158.8624224542139</v>
       </c>
       <c r="U23" t="n">
-        <v>158.862422454214</v>
+        <v>158.8624224542139</v>
       </c>
       <c r="V23" t="n">
-        <v>158.862422454214</v>
+        <v>158.8624224542139</v>
       </c>
       <c r="W23" t="n">
-        <v>158.862422454214</v>
+        <v>158.8624224542139</v>
       </c>
       <c r="X23" t="n">
-        <v>158.862422454214</v>
+        <v>158.8624224542139</v>
       </c>
       <c r="Y23" t="n">
-        <v>158.862422454214</v>
+        <v>158.8624224542139</v>
       </c>
     </row>
     <row r="24">
@@ -29162,10 +29162,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>7.763751642754556</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>76.48064880104579</v>
+        <v>84.24440044379958</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -29193,31 +29193,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>158.862422454214</v>
+        <v>158.8624224542139</v>
       </c>
       <c r="C25" t="n">
-        <v>158.862422454214</v>
+        <v>158.8624224542139</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>158.862422454214</v>
+        <v>158.8624224542139</v>
       </c>
       <c r="H25" t="n">
-        <v>33.40929086292157</v>
+        <v>151.1349521598894</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>117.9320036494506</v>
       </c>
       <c r="J25" t="n">
-        <v>5.154479050315317</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29244,25 +29244,25 @@
         <v>121.1971522780048</v>
       </c>
       <c r="S25" t="n">
-        <v>158.862422454214</v>
+        <v>158.8624224542139</v>
       </c>
       <c r="T25" t="n">
-        <v>158.862422454214</v>
+        <v>158.8624224542139</v>
       </c>
       <c r="U25" t="n">
-        <v>158.862422454214</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>158.862422454214</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>158.862422454214</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>158.862422454214</v>
+        <v>109.8970682559717</v>
       </c>
       <c r="Y25" t="n">
-        <v>158.862422454214</v>
+        <v>158.8624224542139</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="C26" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="D26" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="E26" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="F26" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="G26" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="H26" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="I26" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="T26" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="U26" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="V26" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="W26" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="X26" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="Y26" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710693</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="C28" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="D28" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="E28" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="F28" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="G28" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="H28" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="I28" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="J28" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="K28" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="L28" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="M28" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="N28" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="O28" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="P28" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="Q28" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="R28" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="S28" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="T28" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="U28" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="V28" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="W28" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="X28" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="Y28" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710693</v>
       </c>
     </row>
     <row r="29">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>79.43121122710701</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="C32" t="n">
-        <v>79.43121122710701</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="D32" t="n">
-        <v>79.43121122710701</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="E32" t="n">
-        <v>79.43121122710701</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="F32" t="n">
-        <v>79.43121122710701</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="G32" t="n">
-        <v>79.43121122710701</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="H32" t="n">
-        <v>79.43121122710701</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="I32" t="n">
-        <v>79.43121122710701</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>79.43121122710701</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="T32" t="n">
-        <v>79.43121122710701</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="U32" t="n">
-        <v>79.43121122710701</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="V32" t="n">
-        <v>79.43121122710701</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="W32" t="n">
-        <v>79.43121122710701</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="X32" t="n">
-        <v>79.43121122710701</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="Y32" t="n">
-        <v>79.43121122710701</v>
+        <v>79.43121122710694</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>79.43121122710701</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="C34" t="n">
-        <v>79.43121122710701</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="D34" t="n">
-        <v>79.43121122710701</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="E34" t="n">
-        <v>79.43121122710701</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="F34" t="n">
-        <v>79.43121122710701</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="G34" t="n">
-        <v>79.43121122710701</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="H34" t="n">
-        <v>79.43121122710701</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="I34" t="n">
-        <v>79.43121122710701</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="J34" t="n">
-        <v>79.43121122710701</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="K34" t="n">
-        <v>79.43121122710701</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="L34" t="n">
-        <v>79.43121122710701</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="M34" t="n">
-        <v>79.43121122710701</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="N34" t="n">
-        <v>79.43121122710701</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="O34" t="n">
-        <v>79.43121122710701</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="P34" t="n">
-        <v>79.43121122710701</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="Q34" t="n">
-        <v>79.43121122710701</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="R34" t="n">
-        <v>79.43121122710701</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="S34" t="n">
-        <v>79.43121122710701</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="T34" t="n">
-        <v>79.43121122710701</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="U34" t="n">
-        <v>79.43121122710701</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="V34" t="n">
-        <v>79.43121122710701</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="W34" t="n">
-        <v>79.43121122710701</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="X34" t="n">
-        <v>79.43121122710701</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="Y34" t="n">
-        <v>79.43121122710701</v>
+        <v>79.43121122710694</v>
       </c>
     </row>
     <row r="35">
@@ -30004,7 +30004,7 @@
         <v>145.6414084221107</v>
       </c>
       <c r="I35" t="n">
-        <v>103.2501809788404</v>
+        <v>103.2501809788403</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30141,13 +30141,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>47.68742753450366</v>
       </c>
       <c r="C37" t="n">
         <v>145.6414084221107</v>
       </c>
       <c r="D37" t="n">
-        <v>47.68742753450428</v>
+        <v>145.6414084221107</v>
       </c>
       <c r="E37" t="n">
         <v>145.6414084221107</v>
@@ -30165,7 +30165,7 @@
         <v>117.9320036494506</v>
       </c>
       <c r="J37" t="n">
-        <v>5.154479050315317</v>
+        <v>5.154479050315302</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -30192,16 +30192,16 @@
         <v>121.1971522780048</v>
       </c>
       <c r="S37" t="n">
-        <v>145.6414084221107</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>145.6414084221107</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>145.6414084221107</v>
       </c>
       <c r="V37" t="n">
-        <v>145.6414084221107</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>145.6414084221107</v>
@@ -30241,7 +30241,7 @@
         <v>145.6414084221107</v>
       </c>
       <c r="I38" t="n">
-        <v>103.2501809788404</v>
+        <v>103.2501809788403</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30381,7 +30381,7 @@
         <v>145.6414084221107</v>
       </c>
       <c r="C40" t="n">
-        <v>145.6414084221107</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>145.6414084221107</v>
@@ -30396,13 +30396,13 @@
         <v>145.6414084221107</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>19.97802276184365</v>
       </c>
       <c r="I40" t="n">
-        <v>19.97802276184403</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>5.154479050315317</v>
+        <v>5.154479050315302</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -30441,7 +30441,7 @@
         <v>145.6414084221107</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>145.6414084221107</v>
       </c>
       <c r="X40" t="n">
         <v>145.6414084221107</v>
@@ -30478,7 +30478,7 @@
         <v>145.6414084221107</v>
       </c>
       <c r="I41" t="n">
-        <v>103.2501809788404</v>
+        <v>103.2501809788403</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30615,13 +30615,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>145.6414084221107</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>145.6414084221107</v>
       </c>
       <c r="D43" t="n">
-        <v>145.6414084221107</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>145.6414084221107</v>
@@ -30633,13 +30633,13 @@
         <v>145.6414084221107</v>
       </c>
       <c r="H43" t="n">
-        <v>145.6414084221107</v>
+        <v>47.68742753450377</v>
       </c>
       <c r="I43" t="n">
         <v>117.9320036494506</v>
       </c>
       <c r="J43" t="n">
-        <v>5.154479050315317</v>
+        <v>5.154479050315302</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -30666,13 +30666,13 @@
         <v>121.1971522780048</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>145.6414084221107</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>145.6414084221107</v>
       </c>
       <c r="U43" t="n">
-        <v>47.68742753450425</v>
+        <v>145.6414084221107</v>
       </c>
       <c r="V43" t="n">
         <v>145.6414084221107</v>
@@ -30715,7 +30715,7 @@
         <v>145.6414084221107</v>
       </c>
       <c r="I44" t="n">
-        <v>103.2501809788404</v>
+        <v>103.2501809788403</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30855,7 +30855,7 @@
         <v>145.6414084221107</v>
       </c>
       <c r="C46" t="n">
-        <v>145.6414084221107</v>
+        <v>52.841906584819</v>
       </c>
       <c r="D46" t="n">
         <v>145.6414084221107</v>
@@ -30867,16 +30867,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>145.6414084221107</v>
       </c>
       <c r="H46" t="n">
-        <v>19.97802276184407</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>117.9320036494506</v>
       </c>
       <c r="J46" t="n">
-        <v>5.154479050315317</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -30906,7 +30906,7 @@
         <v>145.6414084221107</v>
       </c>
       <c r="T46" t="n">
-        <v>145.6414084221107</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>145.6414084221107</v>
@@ -31759,7 +31759,7 @@
         <v>107.2257085915655</v>
       </c>
       <c r="J11" t="n">
-        <v>236.0585690830267</v>
+        <v>236.0585690830266</v>
       </c>
       <c r="K11" t="n">
         <v>353.7906031840828</v>
@@ -31771,22 +31771,22 @@
         <v>488.3703055243818</v>
       </c>
       <c r="N11" t="n">
-        <v>496.2726476432013</v>
+        <v>496.2726476432012</v>
       </c>
       <c r="O11" t="n">
-        <v>468.6161885340027</v>
+        <v>468.6161885340026</v>
       </c>
       <c r="P11" t="n">
-        <v>399.9530750950746</v>
+        <v>399.9530750950745</v>
       </c>
       <c r="Q11" t="n">
-        <v>300.3481029418954</v>
+        <v>300.3481029418953</v>
       </c>
       <c r="R11" t="n">
         <v>174.7102501086811</v>
       </c>
       <c r="S11" t="n">
-        <v>63.37866116413463</v>
+        <v>63.37866116413461</v>
       </c>
       <c r="T11" t="n">
         <v>12.17509991205701</v>
@@ -31829,22 +31829,22 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.488121701911175</v>
+        <v>1.488121701911174</v>
       </c>
       <c r="H12" t="n">
         <v>14.37212275266845</v>
       </c>
       <c r="I12" t="n">
-        <v>51.23576912281896</v>
+        <v>51.23576912281895</v>
       </c>
       <c r="J12" t="n">
         <v>140.5948665827571</v>
       </c>
       <c r="K12" t="n">
-        <v>240.2990206108058</v>
+        <v>240.2990206108057</v>
       </c>
       <c r="L12" t="n">
-        <v>323.1116879522487</v>
+        <v>323.1116879522486</v>
       </c>
       <c r="M12" t="n">
         <v>377.0560996465287</v>
@@ -31853,7 +31853,7 @@
         <v>387.0356526387313</v>
       </c>
       <c r="O12" t="n">
-        <v>354.0620086121732</v>
+        <v>354.0620086121731</v>
       </c>
       <c r="P12" t="n">
         <v>284.1659765693365</v>
@@ -31862,16 +31862,16 @@
         <v>189.9574298790475</v>
       </c>
       <c r="R12" t="n">
-        <v>92.39408250988858</v>
+        <v>92.39408250988856</v>
       </c>
       <c r="S12" t="n">
         <v>27.64120792804307</v>
       </c>
       <c r="T12" t="n">
-        <v>5.998174754633197</v>
+        <v>5.998174754633196</v>
       </c>
       <c r="U12" t="n">
-        <v>0.09790274354678784</v>
+        <v>0.09790274354678782</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31917,7 +31917,7 @@
         <v>37.51847127780771</v>
       </c>
       <c r="J13" t="n">
-        <v>88.20470106635746</v>
+        <v>88.20470106635744</v>
       </c>
       <c r="K13" t="n">
         <v>144.9474192655327</v>
@@ -31941,16 +31941,16 @@
         <v>104.4687542139924</v>
       </c>
       <c r="R13" t="n">
-        <v>56.09623909916471</v>
+        <v>56.09623909916469</v>
       </c>
       <c r="S13" t="n">
-        <v>21.74211288982991</v>
+        <v>21.7421128898299</v>
       </c>
       <c r="T13" t="n">
-        <v>5.330617140438215</v>
+        <v>5.330617140438214</v>
       </c>
       <c r="U13" t="n">
-        <v>0.06805043158006241</v>
+        <v>0.0680504315800624</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,46 +31987,46 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2.781290670943919</v>
+        <v>2.78129067094392</v>
       </c>
       <c r="H14" t="n">
         <v>28.48389308380442</v>
       </c>
       <c r="I14" t="n">
-        <v>107.2257085915655</v>
+        <v>107.2257085915656</v>
       </c>
       <c r="J14" t="n">
         <v>236.0585690830267</v>
       </c>
       <c r="K14" t="n">
-        <v>353.7906031840828</v>
+        <v>353.7906031840829</v>
       </c>
       <c r="L14" t="n">
-        <v>438.9085275549829</v>
+        <v>438.908527554983</v>
       </c>
       <c r="M14" t="n">
-        <v>488.3703055243818</v>
+        <v>488.3703055243819</v>
       </c>
       <c r="N14" t="n">
-        <v>496.2726476432013</v>
+        <v>496.2726476432014</v>
       </c>
       <c r="O14" t="n">
         <v>468.6161885340027</v>
       </c>
       <c r="P14" t="n">
-        <v>399.9530750950746</v>
+        <v>399.9530750950747</v>
       </c>
       <c r="Q14" t="n">
         <v>300.3481029418954</v>
       </c>
       <c r="R14" t="n">
-        <v>174.7102501086811</v>
+        <v>174.7102501086812</v>
       </c>
       <c r="S14" t="n">
         <v>63.37866116413463</v>
       </c>
       <c r="T14" t="n">
-        <v>12.17509991205701</v>
+        <v>12.17509991205702</v>
       </c>
       <c r="U14" t="n">
         <v>0.2225032536755135</v>
@@ -32072,7 +32072,7 @@
         <v>14.37212275266845</v>
       </c>
       <c r="I15" t="n">
-        <v>51.23576912281896</v>
+        <v>51.23576912281897</v>
       </c>
       <c r="J15" t="n">
         <v>140.5948665827571</v>
@@ -32081,34 +32081,34 @@
         <v>240.2990206108058</v>
       </c>
       <c r="L15" t="n">
-        <v>323.1116879522487</v>
+        <v>323.1116879522488</v>
       </c>
       <c r="M15" t="n">
-        <v>377.0560996465287</v>
+        <v>377.0560996465288</v>
       </c>
       <c r="N15" t="n">
-        <v>387.0356526387313</v>
+        <v>387.0356526387314</v>
       </c>
       <c r="O15" t="n">
-        <v>354.0620086121732</v>
+        <v>354.0620086121733</v>
       </c>
       <c r="P15" t="n">
-        <v>284.1659765693365</v>
+        <v>284.1659765693366</v>
       </c>
       <c r="Q15" t="n">
         <v>189.9574298790475</v>
       </c>
       <c r="R15" t="n">
-        <v>92.39408250988858</v>
+        <v>92.39408250988859</v>
       </c>
       <c r="S15" t="n">
-        <v>27.64120792804307</v>
+        <v>27.64120792804308</v>
       </c>
       <c r="T15" t="n">
-        <v>5.998174754633197</v>
+        <v>5.998174754633198</v>
       </c>
       <c r="U15" t="n">
-        <v>0.09790274354678784</v>
+        <v>0.09790274354678787</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32151,25 +32151,25 @@
         <v>11.09222034755017</v>
       </c>
       <c r="I16" t="n">
-        <v>37.51847127780771</v>
+        <v>37.51847127780772</v>
       </c>
       <c r="J16" t="n">
-        <v>88.20470106635746</v>
+        <v>88.20470106635747</v>
       </c>
       <c r="K16" t="n">
-        <v>144.9474192655327</v>
+        <v>144.9474192655328</v>
       </c>
       <c r="L16" t="n">
         <v>185.4827930100566</v>
       </c>
       <c r="M16" t="n">
-        <v>195.5655986225024</v>
+        <v>195.5655986225025</v>
       </c>
       <c r="N16" t="n">
         <v>190.915485797865</v>
       </c>
       <c r="O16" t="n">
-        <v>176.3413517011349</v>
+        <v>176.341351701135</v>
       </c>
       <c r="P16" t="n">
         <v>150.8904902901915</v>
@@ -32184,10 +32184,10 @@
         <v>21.74211288982991</v>
       </c>
       <c r="T16" t="n">
-        <v>5.330617140438215</v>
+        <v>5.330617140438216</v>
       </c>
       <c r="U16" t="n">
-        <v>0.06805043158006241</v>
+        <v>0.06805043158006242</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -33409,46 +33409,46 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>2.781290670943919</v>
+        <v>2.78129067094392</v>
       </c>
       <c r="H32" t="n">
         <v>28.48389308380442</v>
       </c>
       <c r="I32" t="n">
-        <v>107.2257085915655</v>
+        <v>107.2257085915656</v>
       </c>
       <c r="J32" t="n">
         <v>236.0585690830267</v>
       </c>
       <c r="K32" t="n">
-        <v>353.7906031840828</v>
+        <v>353.7906031840829</v>
       </c>
       <c r="L32" t="n">
-        <v>438.9085275549829</v>
+        <v>438.908527554983</v>
       </c>
       <c r="M32" t="n">
-        <v>488.3703055243818</v>
+        <v>488.3703055243819</v>
       </c>
       <c r="N32" t="n">
-        <v>496.2726476432013</v>
+        <v>496.2726476432014</v>
       </c>
       <c r="O32" t="n">
         <v>468.6161885340027</v>
       </c>
       <c r="P32" t="n">
-        <v>399.9530750950746</v>
+        <v>399.9530750950747</v>
       </c>
       <c r="Q32" t="n">
         <v>300.3481029418954</v>
       </c>
       <c r="R32" t="n">
-        <v>174.7102501086811</v>
+        <v>174.7102501086812</v>
       </c>
       <c r="S32" t="n">
         <v>63.37866116413463</v>
       </c>
       <c r="T32" t="n">
-        <v>12.17509991205701</v>
+        <v>12.17509991205702</v>
       </c>
       <c r="U32" t="n">
         <v>0.2225032536755135</v>
@@ -33494,7 +33494,7 @@
         <v>14.37212275266845</v>
       </c>
       <c r="I33" t="n">
-        <v>51.23576912281896</v>
+        <v>51.23576912281897</v>
       </c>
       <c r="J33" t="n">
         <v>140.5948665827571</v>
@@ -33503,34 +33503,34 @@
         <v>240.2990206108058</v>
       </c>
       <c r="L33" t="n">
-        <v>323.1116879522487</v>
+        <v>323.1116879522488</v>
       </c>
       <c r="M33" t="n">
-        <v>377.0560996465287</v>
+        <v>377.0560996465288</v>
       </c>
       <c r="N33" t="n">
-        <v>387.0356526387313</v>
+        <v>387.0356526387314</v>
       </c>
       <c r="O33" t="n">
-        <v>354.0620086121732</v>
+        <v>354.0620086121733</v>
       </c>
       <c r="P33" t="n">
-        <v>284.1659765693365</v>
+        <v>284.1659765693366</v>
       </c>
       <c r="Q33" t="n">
         <v>189.9574298790475</v>
       </c>
       <c r="R33" t="n">
-        <v>92.39408250988858</v>
+        <v>92.39408250988859</v>
       </c>
       <c r="S33" t="n">
-        <v>27.64120792804307</v>
+        <v>27.64120792804308</v>
       </c>
       <c r="T33" t="n">
-        <v>5.998174754633197</v>
+        <v>5.998174754633198</v>
       </c>
       <c r="U33" t="n">
-        <v>0.09790274354678784</v>
+        <v>0.09790274354678787</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33573,25 +33573,25 @@
         <v>11.09222034755017</v>
       </c>
       <c r="I34" t="n">
-        <v>37.51847127780771</v>
+        <v>37.51847127780772</v>
       </c>
       <c r="J34" t="n">
-        <v>88.20470106635746</v>
+        <v>88.20470106635747</v>
       </c>
       <c r="K34" t="n">
-        <v>144.9474192655327</v>
+        <v>144.9474192655328</v>
       </c>
       <c r="L34" t="n">
         <v>185.4827930100566</v>
       </c>
       <c r="M34" t="n">
-        <v>195.5655986225024</v>
+        <v>195.5655986225025</v>
       </c>
       <c r="N34" t="n">
         <v>190.915485797865</v>
       </c>
       <c r="O34" t="n">
-        <v>176.3413517011349</v>
+        <v>176.341351701135</v>
       </c>
       <c r="P34" t="n">
         <v>150.8904902901915</v>
@@ -33606,10 +33606,10 @@
         <v>21.74211288982991</v>
       </c>
       <c r="T34" t="n">
-        <v>5.330617140438215</v>
+        <v>5.330617140438216</v>
       </c>
       <c r="U34" t="n">
-        <v>0.06805043158006241</v>
+        <v>0.06805043158006242</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,46 +33646,46 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>2.781290670943919</v>
+        <v>2.78129067094392</v>
       </c>
       <c r="H35" t="n">
         <v>28.48389308380442</v>
       </c>
       <c r="I35" t="n">
-        <v>107.2257085915655</v>
+        <v>107.2257085915656</v>
       </c>
       <c r="J35" t="n">
         <v>236.0585690830267</v>
       </c>
       <c r="K35" t="n">
-        <v>353.7906031840828</v>
+        <v>353.7906031840829</v>
       </c>
       <c r="L35" t="n">
-        <v>438.9085275549829</v>
+        <v>438.908527554983</v>
       </c>
       <c r="M35" t="n">
-        <v>488.3703055243818</v>
+        <v>488.3703055243819</v>
       </c>
       <c r="N35" t="n">
-        <v>496.2726476432013</v>
+        <v>496.2726476432014</v>
       </c>
       <c r="O35" t="n">
         <v>468.6161885340027</v>
       </c>
       <c r="P35" t="n">
-        <v>399.9530750950746</v>
+        <v>399.9530750950747</v>
       </c>
       <c r="Q35" t="n">
         <v>300.3481029418954</v>
       </c>
       <c r="R35" t="n">
-        <v>174.7102501086811</v>
+        <v>174.7102501086812</v>
       </c>
       <c r="S35" t="n">
         <v>63.37866116413463</v>
       </c>
       <c r="T35" t="n">
-        <v>12.17509991205701</v>
+        <v>12.17509991205702</v>
       </c>
       <c r="U35" t="n">
         <v>0.2225032536755135</v>
@@ -33731,7 +33731,7 @@
         <v>14.37212275266845</v>
       </c>
       <c r="I36" t="n">
-        <v>51.23576912281896</v>
+        <v>51.23576912281897</v>
       </c>
       <c r="J36" t="n">
         <v>140.5948665827571</v>
@@ -33740,34 +33740,34 @@
         <v>240.2990206108058</v>
       </c>
       <c r="L36" t="n">
-        <v>323.1116879522487</v>
+        <v>323.1116879522488</v>
       </c>
       <c r="M36" t="n">
-        <v>377.0560996465287</v>
+        <v>377.0560996465288</v>
       </c>
       <c r="N36" t="n">
-        <v>387.0356526387313</v>
+        <v>387.0356526387314</v>
       </c>
       <c r="O36" t="n">
-        <v>354.0620086121732</v>
+        <v>354.0620086121733</v>
       </c>
       <c r="P36" t="n">
-        <v>284.1659765693365</v>
+        <v>284.1659765693366</v>
       </c>
       <c r="Q36" t="n">
         <v>189.9574298790475</v>
       </c>
       <c r="R36" t="n">
-        <v>92.39408250988858</v>
+        <v>92.39408250988859</v>
       </c>
       <c r="S36" t="n">
-        <v>27.64120792804307</v>
+        <v>27.64120792804308</v>
       </c>
       <c r="T36" t="n">
-        <v>5.998174754633197</v>
+        <v>5.998174754633198</v>
       </c>
       <c r="U36" t="n">
-        <v>0.09790274354678784</v>
+        <v>0.09790274354678787</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33810,25 +33810,25 @@
         <v>11.09222034755017</v>
       </c>
       <c r="I37" t="n">
-        <v>37.51847127780771</v>
+        <v>37.51847127780772</v>
       </c>
       <c r="J37" t="n">
-        <v>88.20470106635746</v>
+        <v>88.20470106635747</v>
       </c>
       <c r="K37" t="n">
-        <v>144.9474192655327</v>
+        <v>144.9474192655328</v>
       </c>
       <c r="L37" t="n">
         <v>185.4827930100566</v>
       </c>
       <c r="M37" t="n">
-        <v>195.5655986225024</v>
+        <v>195.5655986225025</v>
       </c>
       <c r="N37" t="n">
         <v>190.915485797865</v>
       </c>
       <c r="O37" t="n">
-        <v>176.3413517011349</v>
+        <v>176.341351701135</v>
       </c>
       <c r="P37" t="n">
         <v>150.8904902901915</v>
@@ -33843,10 +33843,10 @@
         <v>21.74211288982991</v>
       </c>
       <c r="T37" t="n">
-        <v>5.330617140438215</v>
+        <v>5.330617140438216</v>
       </c>
       <c r="U37" t="n">
-        <v>0.06805043158006241</v>
+        <v>0.06805043158006242</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,46 +33883,46 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>2.781290670943919</v>
+        <v>2.78129067094392</v>
       </c>
       <c r="H38" t="n">
         <v>28.48389308380442</v>
       </c>
       <c r="I38" t="n">
-        <v>107.2257085915655</v>
+        <v>107.2257085915656</v>
       </c>
       <c r="J38" t="n">
         <v>236.0585690830267</v>
       </c>
       <c r="K38" t="n">
-        <v>353.7906031840828</v>
+        <v>353.7906031840829</v>
       </c>
       <c r="L38" t="n">
-        <v>438.9085275549829</v>
+        <v>438.908527554983</v>
       </c>
       <c r="M38" t="n">
-        <v>488.3703055243818</v>
+        <v>488.3703055243819</v>
       </c>
       <c r="N38" t="n">
-        <v>496.2726476432013</v>
+        <v>496.2726476432014</v>
       </c>
       <c r="O38" t="n">
         <v>468.6161885340027</v>
       </c>
       <c r="P38" t="n">
-        <v>399.9530750950746</v>
+        <v>399.9530750950747</v>
       </c>
       <c r="Q38" t="n">
         <v>300.3481029418954</v>
       </c>
       <c r="R38" t="n">
-        <v>174.7102501086811</v>
+        <v>174.7102501086812</v>
       </c>
       <c r="S38" t="n">
         <v>63.37866116413463</v>
       </c>
       <c r="T38" t="n">
-        <v>12.17509991205701</v>
+        <v>12.17509991205702</v>
       </c>
       <c r="U38" t="n">
         <v>0.2225032536755135</v>
@@ -33968,7 +33968,7 @@
         <v>14.37212275266845</v>
       </c>
       <c r="I39" t="n">
-        <v>51.23576912281896</v>
+        <v>51.23576912281897</v>
       </c>
       <c r="J39" t="n">
         <v>140.5948665827571</v>
@@ -33977,34 +33977,34 @@
         <v>240.2990206108058</v>
       </c>
       <c r="L39" t="n">
-        <v>323.1116879522487</v>
+        <v>323.1116879522488</v>
       </c>
       <c r="M39" t="n">
-        <v>377.0560996465287</v>
+        <v>377.0560996465288</v>
       </c>
       <c r="N39" t="n">
-        <v>387.0356526387313</v>
+        <v>387.0356526387314</v>
       </c>
       <c r="O39" t="n">
-        <v>354.0620086121732</v>
+        <v>354.0620086121733</v>
       </c>
       <c r="P39" t="n">
-        <v>284.1659765693365</v>
+        <v>284.1659765693366</v>
       </c>
       <c r="Q39" t="n">
         <v>189.9574298790475</v>
       </c>
       <c r="R39" t="n">
-        <v>92.39408250988858</v>
+        <v>92.39408250988859</v>
       </c>
       <c r="S39" t="n">
-        <v>27.64120792804307</v>
+        <v>27.64120792804308</v>
       </c>
       <c r="T39" t="n">
-        <v>5.998174754633197</v>
+        <v>5.998174754633198</v>
       </c>
       <c r="U39" t="n">
-        <v>0.09790274354678784</v>
+        <v>0.09790274354678787</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34047,25 +34047,25 @@
         <v>11.09222034755017</v>
       </c>
       <c r="I40" t="n">
-        <v>37.51847127780771</v>
+        <v>37.51847127780772</v>
       </c>
       <c r="J40" t="n">
-        <v>88.20470106635746</v>
+        <v>88.20470106635747</v>
       </c>
       <c r="K40" t="n">
-        <v>144.9474192655327</v>
+        <v>144.9474192655328</v>
       </c>
       <c r="L40" t="n">
         <v>185.4827930100566</v>
       </c>
       <c r="M40" t="n">
-        <v>195.5655986225024</v>
+        <v>195.5655986225025</v>
       </c>
       <c r="N40" t="n">
         <v>190.915485797865</v>
       </c>
       <c r="O40" t="n">
-        <v>176.3413517011349</v>
+        <v>176.341351701135</v>
       </c>
       <c r="P40" t="n">
         <v>150.8904902901915</v>
@@ -34080,10 +34080,10 @@
         <v>21.74211288982991</v>
       </c>
       <c r="T40" t="n">
-        <v>5.330617140438215</v>
+        <v>5.330617140438216</v>
       </c>
       <c r="U40" t="n">
-        <v>0.06805043158006241</v>
+        <v>0.06805043158006242</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,46 +34120,46 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>2.781290670943919</v>
+        <v>2.78129067094392</v>
       </c>
       <c r="H41" t="n">
         <v>28.48389308380442</v>
       </c>
       <c r="I41" t="n">
-        <v>107.2257085915655</v>
+        <v>107.2257085915656</v>
       </c>
       <c r="J41" t="n">
         <v>236.0585690830267</v>
       </c>
       <c r="K41" t="n">
-        <v>353.7906031840828</v>
+        <v>353.7906031840829</v>
       </c>
       <c r="L41" t="n">
-        <v>438.9085275549829</v>
+        <v>438.908527554983</v>
       </c>
       <c r="M41" t="n">
-        <v>488.3703055243818</v>
+        <v>488.3703055243819</v>
       </c>
       <c r="N41" t="n">
-        <v>496.2726476432013</v>
+        <v>496.2726476432014</v>
       </c>
       <c r="O41" t="n">
         <v>468.6161885340027</v>
       </c>
       <c r="P41" t="n">
-        <v>399.9530750950746</v>
+        <v>399.9530750950747</v>
       </c>
       <c r="Q41" t="n">
         <v>300.3481029418954</v>
       </c>
       <c r="R41" t="n">
-        <v>174.7102501086811</v>
+        <v>174.7102501086812</v>
       </c>
       <c r="S41" t="n">
         <v>63.37866116413463</v>
       </c>
       <c r="T41" t="n">
-        <v>12.17509991205701</v>
+        <v>12.17509991205702</v>
       </c>
       <c r="U41" t="n">
         <v>0.2225032536755135</v>
@@ -34205,7 +34205,7 @@
         <v>14.37212275266845</v>
       </c>
       <c r="I42" t="n">
-        <v>51.23576912281896</v>
+        <v>51.23576912281897</v>
       </c>
       <c r="J42" t="n">
         <v>140.5948665827571</v>
@@ -34214,34 +34214,34 @@
         <v>240.2990206108058</v>
       </c>
       <c r="L42" t="n">
-        <v>323.1116879522487</v>
+        <v>323.1116879522488</v>
       </c>
       <c r="M42" t="n">
-        <v>377.0560996465287</v>
+        <v>377.0560996465288</v>
       </c>
       <c r="N42" t="n">
-        <v>387.0356526387313</v>
+        <v>387.0356526387314</v>
       </c>
       <c r="O42" t="n">
-        <v>354.0620086121732</v>
+        <v>354.0620086121733</v>
       </c>
       <c r="P42" t="n">
-        <v>284.1659765693365</v>
+        <v>284.1659765693366</v>
       </c>
       <c r="Q42" t="n">
         <v>189.9574298790475</v>
       </c>
       <c r="R42" t="n">
-        <v>92.39408250988858</v>
+        <v>92.39408250988859</v>
       </c>
       <c r="S42" t="n">
-        <v>27.64120792804307</v>
+        <v>27.64120792804308</v>
       </c>
       <c r="T42" t="n">
-        <v>5.998174754633197</v>
+        <v>5.998174754633198</v>
       </c>
       <c r="U42" t="n">
-        <v>0.09790274354678784</v>
+        <v>0.09790274354678787</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34284,25 +34284,25 @@
         <v>11.09222034755017</v>
       </c>
       <c r="I43" t="n">
-        <v>37.51847127780771</v>
+        <v>37.51847127780772</v>
       </c>
       <c r="J43" t="n">
-        <v>88.20470106635746</v>
+        <v>88.20470106635747</v>
       </c>
       <c r="K43" t="n">
-        <v>144.9474192655327</v>
+        <v>144.9474192655328</v>
       </c>
       <c r="L43" t="n">
         <v>185.4827930100566</v>
       </c>
       <c r="M43" t="n">
-        <v>195.5655986225024</v>
+        <v>195.5655986225025</v>
       </c>
       <c r="N43" t="n">
         <v>190.915485797865</v>
       </c>
       <c r="O43" t="n">
-        <v>176.3413517011349</v>
+        <v>176.341351701135</v>
       </c>
       <c r="P43" t="n">
         <v>150.8904902901915</v>
@@ -34317,10 +34317,10 @@
         <v>21.74211288982991</v>
       </c>
       <c r="T43" t="n">
-        <v>5.330617140438215</v>
+        <v>5.330617140438216</v>
       </c>
       <c r="U43" t="n">
-        <v>0.06805043158006241</v>
+        <v>0.06805043158006242</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,46 +34357,46 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>2.781290670943919</v>
+        <v>2.78129067094392</v>
       </c>
       <c r="H44" t="n">
         <v>28.48389308380442</v>
       </c>
       <c r="I44" t="n">
-        <v>107.2257085915655</v>
+        <v>107.2257085915656</v>
       </c>
       <c r="J44" t="n">
         <v>236.0585690830267</v>
       </c>
       <c r="K44" t="n">
-        <v>353.7906031840828</v>
+        <v>353.7906031840829</v>
       </c>
       <c r="L44" t="n">
-        <v>438.9085275549829</v>
+        <v>438.908527554983</v>
       </c>
       <c r="M44" t="n">
-        <v>488.3703055243818</v>
+        <v>488.3703055243819</v>
       </c>
       <c r="N44" t="n">
-        <v>496.2726476432013</v>
+        <v>496.2726476432014</v>
       </c>
       <c r="O44" t="n">
         <v>468.6161885340027</v>
       </c>
       <c r="P44" t="n">
-        <v>399.9530750950746</v>
+        <v>399.9530750950747</v>
       </c>
       <c r="Q44" t="n">
         <v>300.3481029418954</v>
       </c>
       <c r="R44" t="n">
-        <v>174.7102501086811</v>
+        <v>174.7102501086812</v>
       </c>
       <c r="S44" t="n">
         <v>63.37866116413463</v>
       </c>
       <c r="T44" t="n">
-        <v>12.17509991205701</v>
+        <v>12.17509991205702</v>
       </c>
       <c r="U44" t="n">
         <v>0.2225032536755135</v>
@@ -34442,7 +34442,7 @@
         <v>14.37212275266845</v>
       </c>
       <c r="I45" t="n">
-        <v>51.23576912281896</v>
+        <v>51.23576912281897</v>
       </c>
       <c r="J45" t="n">
         <v>140.5948665827571</v>
@@ -34451,34 +34451,34 @@
         <v>240.2990206108058</v>
       </c>
       <c r="L45" t="n">
-        <v>323.1116879522487</v>
+        <v>323.1116879522488</v>
       </c>
       <c r="M45" t="n">
-        <v>377.0560996465287</v>
+        <v>377.0560996465288</v>
       </c>
       <c r="N45" t="n">
-        <v>387.0356526387313</v>
+        <v>387.0356526387314</v>
       </c>
       <c r="O45" t="n">
-        <v>354.0620086121732</v>
+        <v>354.0620086121733</v>
       </c>
       <c r="P45" t="n">
-        <v>284.1659765693365</v>
+        <v>284.1659765693366</v>
       </c>
       <c r="Q45" t="n">
         <v>189.9574298790475</v>
       </c>
       <c r="R45" t="n">
-        <v>92.39408250988858</v>
+        <v>92.39408250988859</v>
       </c>
       <c r="S45" t="n">
-        <v>27.64120792804307</v>
+        <v>27.64120792804308</v>
       </c>
       <c r="T45" t="n">
-        <v>5.998174754633197</v>
+        <v>5.998174754633198</v>
       </c>
       <c r="U45" t="n">
-        <v>0.09790274354678784</v>
+        <v>0.09790274354678787</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34521,25 +34521,25 @@
         <v>11.09222034755017</v>
       </c>
       <c r="I46" t="n">
-        <v>37.51847127780771</v>
+        <v>37.51847127780772</v>
       </c>
       <c r="J46" t="n">
-        <v>88.20470106635746</v>
+        <v>88.20470106635747</v>
       </c>
       <c r="K46" t="n">
-        <v>144.9474192655327</v>
+        <v>144.9474192655328</v>
       </c>
       <c r="L46" t="n">
         <v>185.4827930100566</v>
       </c>
       <c r="M46" t="n">
-        <v>195.5655986225024</v>
+        <v>195.5655986225025</v>
       </c>
       <c r="N46" t="n">
         <v>190.915485797865</v>
       </c>
       <c r="O46" t="n">
-        <v>176.3413517011349</v>
+        <v>176.341351701135</v>
       </c>
       <c r="P46" t="n">
         <v>150.8904902901915</v>
@@ -34554,10 +34554,10 @@
         <v>21.74211288982991</v>
       </c>
       <c r="T46" t="n">
-        <v>5.330617140438215</v>
+        <v>5.330617140438216</v>
       </c>
       <c r="U46" t="n">
-        <v>0.06805043158006241</v>
+        <v>0.06805043158006242</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>224.1092797284142</v>
+        <v>224.1092797284141</v>
       </c>
       <c r="K11" t="n">
-        <v>457.846164710267</v>
+        <v>314.5212925131256</v>
       </c>
       <c r="L11" t="n">
-        <v>381.6159485593355</v>
+        <v>203.1421125849956</v>
       </c>
       <c r="M11" t="n">
-        <v>258.0240722971091</v>
+        <v>258.024072297109</v>
       </c>
       <c r="N11" t="n">
-        <v>266.8595840466104</v>
+        <v>266.8595840466103</v>
       </c>
       <c r="O11" t="n">
-        <v>238.5179771123159</v>
+        <v>238.5179771123158</v>
       </c>
       <c r="P11" t="n">
-        <v>168.7200793398051</v>
+        <v>490.5187875112876</v>
       </c>
       <c r="Q11" t="n">
-        <v>290.3574037273506</v>
+        <v>290.3574037273505</v>
       </c>
       <c r="R11" t="n">
-        <v>24.84113216753144</v>
+        <v>24.84113216753141</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>13.75723991609041</v>
+        <v>139.8482752564992</v>
       </c>
       <c r="K12" t="n">
-        <v>310.9476965253597</v>
+        <v>366.9228186490253</v>
       </c>
       <c r="L12" t="n">
-        <v>555.3976534758337</v>
+        <v>184.5573081723745</v>
       </c>
       <c r="M12" t="n">
-        <v>234.9220657245104</v>
+        <v>234.9220657245103</v>
       </c>
       <c r="N12" t="n">
         <v>255.693940555398</v>
       </c>
       <c r="O12" t="n">
-        <v>211.4657641677288</v>
+        <v>583.6180421611868</v>
       </c>
       <c r="P12" t="n">
         <v>468.6543377949434</v>
       </c>
       <c r="Q12" t="n">
-        <v>260.0529435288751</v>
+        <v>76.67485337480244</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35647,28 +35647,28 @@
         <v>224.1092797284142</v>
       </c>
       <c r="K14" t="n">
-        <v>133.7007521391023</v>
+        <v>457.8461647102671</v>
       </c>
       <c r="L14" t="n">
-        <v>583.6180421611867</v>
+        <v>203.1421125849957</v>
       </c>
       <c r="M14" t="n">
-        <v>583.6180421611867</v>
+        <v>258.0240722971092</v>
       </c>
       <c r="N14" t="n">
-        <v>266.8595840466104</v>
+        <v>266.8595840466105</v>
       </c>
       <c r="O14" t="n">
-        <v>238.5179771123159</v>
+        <v>416.9918130866561</v>
       </c>
       <c r="P14" t="n">
-        <v>177.5844191049458</v>
+        <v>168.7200793398051</v>
       </c>
       <c r="Q14" t="n">
-        <v>78.04241306744589</v>
+        <v>290.3574037273506</v>
       </c>
       <c r="R14" t="n">
-        <v>24.84113216753144</v>
+        <v>24.84113216753147</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,19 +35729,19 @@
         <v>366.9228186490254</v>
       </c>
       <c r="L15" t="n">
-        <v>373.3314960117592</v>
+        <v>373.3314960117591</v>
       </c>
       <c r="M15" t="n">
         <v>234.9220657245104</v>
       </c>
       <c r="N15" t="n">
-        <v>255.693940555398</v>
+        <v>255.6939405553981</v>
       </c>
       <c r="O15" t="n">
         <v>211.4657641677288</v>
       </c>
       <c r="P15" t="n">
-        <v>468.6543377949434</v>
+        <v>468.6543377949435</v>
       </c>
       <c r="Q15" t="n">
         <v>260.0529435288751</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>74.27673217679165</v>
+        <v>74.27673217679164</v>
       </c>
       <c r="K16" t="n">
         <v>202.1091386667568</v>
@@ -35823,7 +35823,7 @@
         <v>227.6002607821919</v>
       </c>
       <c r="Q16" t="n">
-        <v>97.73792218940449</v>
+        <v>97.73792218940494</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,25 +35881,25 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>224.1092797284142</v>
+        <v>55.01266455634041</v>
       </c>
       <c r="K17" t="n">
-        <v>133.7007521391023</v>
+        <v>457.846164710267</v>
       </c>
       <c r="L17" t="n">
         <v>203.1421125849957</v>
       </c>
       <c r="M17" t="n">
-        <v>583.6180421611867</v>
+        <v>258.0240722971091</v>
       </c>
       <c r="N17" t="n">
-        <v>335.9409205066025</v>
+        <v>266.8595840466104</v>
       </c>
       <c r="O17" t="n">
-        <v>583.6180421611867</v>
+        <v>583.6180421611868</v>
       </c>
       <c r="P17" t="n">
-        <v>168.7200793398051</v>
+        <v>408.3465882647841</v>
       </c>
       <c r="Q17" t="n">
         <v>78.04241306744589</v>
@@ -35963,10 +35963,10 @@
         <v>139.8482752564992</v>
       </c>
       <c r="K18" t="n">
-        <v>102.4575816364468</v>
+        <v>366.9228186490254</v>
       </c>
       <c r="L18" t="n">
-        <v>475.7217427667288</v>
+        <v>373.3314960117597</v>
       </c>
       <c r="M18" t="n">
         <v>234.9220657245104</v>
@@ -35975,13 +35975,13 @@
         <v>255.693940555398</v>
       </c>
       <c r="O18" t="n">
-        <v>583.6180421611867</v>
+        <v>211.4657641677288</v>
       </c>
       <c r="P18" t="n">
         <v>468.6543377949434</v>
       </c>
       <c r="Q18" t="n">
-        <v>49.97565579302599</v>
+        <v>260.0529435288751</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36118,13 +36118,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>55.01266455634041</v>
+        <v>80.784407531272</v>
       </c>
       <c r="K20" t="n">
-        <v>292.1556118915234</v>
+        <v>457.846164710267</v>
       </c>
       <c r="L20" t="n">
-        <v>583.6180421611867</v>
+        <v>203.1421125849957</v>
       </c>
       <c r="M20" t="n">
         <v>258.0240722971091</v>
@@ -36133,13 +36133,13 @@
         <v>266.8595840466104</v>
       </c>
       <c r="O20" t="n">
-        <v>583.6180421611867</v>
+        <v>238.5179771123159</v>
       </c>
       <c r="P20" t="n">
-        <v>168.7200793398051</v>
+        <v>490.5187875112877</v>
       </c>
       <c r="Q20" t="n">
-        <v>78.04241306744589</v>
+        <v>290.3574037273506</v>
       </c>
       <c r="R20" t="n">
         <v>24.84113216753144</v>
@@ -36218,7 +36218,7 @@
         <v>468.6543377949434</v>
       </c>
       <c r="Q21" t="n">
-        <v>204.0778214052095</v>
+        <v>204.07782140521</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>224.1092797284142</v>
+        <v>55.01266455634041</v>
       </c>
       <c r="K23" t="n">
         <v>457.846164710267</v>
@@ -36364,22 +36364,22 @@
         <v>203.1421125849957</v>
       </c>
       <c r="M23" t="n">
-        <v>258.0240722971091</v>
+        <v>629.974031299944</v>
       </c>
       <c r="N23" t="n">
-        <v>266.8595840466104</v>
+        <v>629.974031299944</v>
       </c>
       <c r="O23" t="n">
-        <v>278.7440922120701</v>
+        <v>238.5179771123159</v>
       </c>
       <c r="P23" t="n">
-        <v>490.5187875112877</v>
+        <v>201.9332343543844</v>
       </c>
       <c r="Q23" t="n">
-        <v>290.3574037273506</v>
+        <v>78.04241306744589</v>
       </c>
       <c r="R23" t="n">
-        <v>24.84113216753144</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,19 +36440,19 @@
         <v>366.9228186490254</v>
       </c>
       <c r="L24" t="n">
-        <v>555.3976534758337</v>
+        <v>184.5573081723745</v>
       </c>
       <c r="M24" t="n">
-        <v>236.4068955573324</v>
+        <v>629.974031299944</v>
       </c>
       <c r="N24" t="n">
-        <v>255.693940555398</v>
+        <v>551.4299187561837</v>
       </c>
       <c r="O24" t="n">
         <v>211.4657641677288</v>
       </c>
       <c r="P24" t="n">
-        <v>468.6543377949434</v>
+        <v>150.1915691550063</v>
       </c>
       <c r="Q24" t="n">
         <v>260.0529435288751</v>
@@ -36592,10 +36592,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>55.01266455634041</v>
+        <v>224.1092797284142</v>
       </c>
       <c r="K26" t="n">
-        <v>364.4321130754272</v>
+        <v>457.846164710267</v>
       </c>
       <c r="L26" t="n">
         <v>620.8033271354461</v>
@@ -36607,13 +36607,13 @@
         <v>704.2065084585945</v>
       </c>
       <c r="O26" t="n">
-        <v>619.3181583750613</v>
+        <v>238.5179771123159</v>
       </c>
       <c r="P26" t="n">
-        <v>490.5187875112877</v>
+        <v>396.4933113072165</v>
       </c>
       <c r="Q26" t="n">
-        <v>78.04241306744589</v>
+        <v>290.3574037273506</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>139.8482752564992</v>
+        <v>43.50297656221526</v>
       </c>
       <c r="K27" t="n">
         <v>366.9228186490254</v>
@@ -36686,13 +36686,13 @@
         <v>255.693940555398</v>
       </c>
       <c r="O27" t="n">
-        <v>298.9054970143253</v>
+        <v>605.3280834444583</v>
       </c>
       <c r="P27" t="n">
         <v>468.6543377949434</v>
       </c>
       <c r="Q27" t="n">
-        <v>260.0529435288751</v>
+        <v>49.97565579302599</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>74.27673217679164</v>
+        <v>74.27673217679161</v>
       </c>
       <c r="K28" t="n">
         <v>202.1091386667568</v>
@@ -36759,19 +36759,19 @@
         <v>292.5040294974797</v>
       </c>
       <c r="M28" t="n">
-        <v>314.58068681145</v>
+        <v>314.5806868114499</v>
       </c>
       <c r="N28" t="n">
-        <v>314.4788694042006</v>
+        <v>314.4788694042005</v>
       </c>
       <c r="O28" t="n">
-        <v>280.3576908422816</v>
+        <v>280.3576908422815</v>
       </c>
       <c r="P28" t="n">
         <v>227.6002607821919</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.73792218940494</v>
+        <v>97.73792218940491</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>224.1092797284142</v>
+        <v>55.01266455634041</v>
       </c>
       <c r="K29" t="n">
         <v>457.846164710267</v>
@@ -36838,22 +36838,22 @@
         <v>620.8033271354461</v>
       </c>
       <c r="M29" t="n">
-        <v>258.0240722971091</v>
+        <v>707.5376057899416</v>
       </c>
       <c r="N29" t="n">
-        <v>654.0532523170776</v>
+        <v>704.2065084585945</v>
       </c>
       <c r="O29" t="n">
         <v>619.3181583750613</v>
       </c>
       <c r="P29" t="n">
-        <v>490.5187875112877</v>
+        <v>397.1047358764465</v>
       </c>
       <c r="Q29" t="n">
-        <v>290.3574037273506</v>
+        <v>78.04241306744589</v>
       </c>
       <c r="R29" t="n">
-        <v>24.84113216753144</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,13 +36908,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>139.8482752564992</v>
+        <v>43.5029765622153</v>
       </c>
       <c r="K30" t="n">
         <v>366.9228186490254</v>
       </c>
       <c r="L30" t="n">
-        <v>248.9750670457007</v>
+        <v>555.3976534758337</v>
       </c>
       <c r="M30" t="n">
         <v>234.9220657245104</v>
@@ -36929,7 +36929,7 @@
         <v>468.6543377949434</v>
       </c>
       <c r="Q30" t="n">
-        <v>260.0529435288751</v>
+        <v>49.97565579302599</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>55.01266455634041</v>
+        <v>224.1092797284142</v>
       </c>
       <c r="K32" t="n">
-        <v>457.846164710267</v>
+        <v>457.8461647102671</v>
       </c>
       <c r="L32" t="n">
         <v>620.8033271354461</v>
       </c>
       <c r="M32" t="n">
-        <v>376.9674313276652</v>
+        <v>707.5376057899417</v>
       </c>
       <c r="N32" t="n">
-        <v>704.2065084585945</v>
+        <v>551.1795591632585</v>
       </c>
       <c r="O32" t="n">
         <v>619.3181583750613</v>
       </c>
       <c r="P32" t="n">
-        <v>490.5187875112877</v>
+        <v>168.7200793398051</v>
       </c>
       <c r="Q32" t="n">
         <v>290.3574037273506</v>
       </c>
       <c r="R32" t="n">
-        <v>24.84113216753144</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>139.8482752564992</v>
+        <v>43.50297656221527</v>
       </c>
       <c r="K33" t="n">
         <v>366.9228186490254</v>
@@ -37154,19 +37154,19 @@
         <v>555.3976534758337</v>
       </c>
       <c r="M33" t="n">
-        <v>322.361798571107</v>
+        <v>234.9220657245104</v>
       </c>
       <c r="N33" t="n">
-        <v>255.693940555398</v>
+        <v>255.6939405553981</v>
       </c>
       <c r="O33" t="n">
-        <v>211.4657641677288</v>
+        <v>605.3280834444583</v>
       </c>
       <c r="P33" t="n">
-        <v>468.6543377949434</v>
+        <v>468.6543377949435</v>
       </c>
       <c r="Q33" t="n">
-        <v>260.0529435288751</v>
+        <v>49.97565579302602</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,16 +37224,16 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>74.2767321767917</v>
+        <v>74.27673217679164</v>
       </c>
       <c r="K34" t="n">
-        <v>202.1091386667569</v>
+        <v>202.1091386667568</v>
       </c>
       <c r="L34" t="n">
-        <v>292.5040294974798</v>
+        <v>292.5040294974797</v>
       </c>
       <c r="M34" t="n">
-        <v>314.5806868114501</v>
+        <v>314.58068681145</v>
       </c>
       <c r="N34" t="n">
         <v>314.4788694042006</v>
@@ -37242,10 +37242,10 @@
         <v>280.3576908422816</v>
       </c>
       <c r="P34" t="n">
-        <v>227.600260782192</v>
+        <v>227.6002607821919</v>
       </c>
       <c r="Q34" t="n">
-        <v>97.737922189405</v>
+        <v>97.73792218940494</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,10 +37303,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>55.01266455634041</v>
+        <v>55.01266455634044</v>
       </c>
       <c r="K35" t="n">
-        <v>135.3437164174815</v>
+        <v>133.7007521391023</v>
       </c>
       <c r="L35" t="n">
         <v>620.8033271354461</v>
@@ -37318,16 +37318,16 @@
         <v>674.2621117002076</v>
       </c>
       <c r="O35" t="n">
-        <v>238.5179771123159</v>
+        <v>238.517977112316</v>
       </c>
       <c r="P35" t="n">
         <v>168.7200793398051</v>
       </c>
       <c r="Q35" t="n">
-        <v>78.04241306744589</v>
+        <v>79.68537734582472</v>
       </c>
       <c r="R35" t="n">
-        <v>24.84113216753144</v>
+        <v>24.84113216753147</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>139.8482752564992</v>
+        <v>13.75723991609041</v>
       </c>
       <c r="K36" t="n">
         <v>366.9228186490254</v>
@@ -37391,19 +37391,19 @@
         <v>555.3976534758337</v>
       </c>
       <c r="M36" t="n">
-        <v>234.9220657245104</v>
+        <v>264.6678023706357</v>
       </c>
       <c r="N36" t="n">
-        <v>255.693940555398</v>
+        <v>255.6939405553981</v>
       </c>
       <c r="O36" t="n">
-        <v>298.9054970143258</v>
+        <v>605.3280834444583</v>
       </c>
       <c r="P36" t="n">
-        <v>468.6543377949434</v>
+        <v>468.6543377949435</v>
       </c>
       <c r="Q36" t="n">
-        <v>260.0529435288751</v>
+        <v>49.97565579302602</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37467,10 +37467,10 @@
         <v>122.6779274396499</v>
       </c>
       <c r="L37" t="n">
-        <v>213.0728182703727</v>
+        <v>213.0728182703728</v>
       </c>
       <c r="M37" t="n">
-        <v>235.149475584343</v>
+        <v>235.1494755843431</v>
       </c>
       <c r="N37" t="n">
         <v>235.0476581770936</v>
@@ -37482,7 +37482,7 @@
         <v>148.169049555085</v>
       </c>
       <c r="Q37" t="n">
-        <v>18.30671096229798</v>
+        <v>18.306710962298</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,19 +37540,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>200.1917342250354</v>
+        <v>55.01266455634044</v>
       </c>
       <c r="K38" t="n">
-        <v>457.846164710267</v>
+        <v>133.7007521391023</v>
       </c>
       <c r="L38" t="n">
         <v>620.8033271354461</v>
       </c>
       <c r="M38" t="n">
-        <v>258.0240722971091</v>
+        <v>258.0240722971092</v>
       </c>
       <c r="N38" t="n">
-        <v>266.8595840466104</v>
+        <v>674.2621117002076</v>
       </c>
       <c r="O38" t="n">
         <v>619.3181583750613</v>
@@ -37561,7 +37561,7 @@
         <v>168.7200793398051</v>
       </c>
       <c r="Q38" t="n">
-        <v>78.04241306744589</v>
+        <v>139.9643676537091</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>139.8482752564992</v>
+        <v>13.75723991609041</v>
       </c>
       <c r="K39" t="n">
         <v>366.9228186490254</v>
@@ -37628,19 +37628,19 @@
         <v>555.3976534758337</v>
       </c>
       <c r="M39" t="n">
-        <v>674.2621117002074</v>
+        <v>234.9220657245104</v>
       </c>
       <c r="N39" t="n">
-        <v>432.3336838020844</v>
+        <v>285.4396772015235</v>
       </c>
       <c r="O39" t="n">
-        <v>211.4657641677288</v>
+        <v>605.3280834444583</v>
       </c>
       <c r="P39" t="n">
-        <v>150.1915691550063</v>
+        <v>468.6543377949435</v>
       </c>
       <c r="Q39" t="n">
-        <v>49.97565579302599</v>
+        <v>49.97565579302602</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37704,10 +37704,10 @@
         <v>122.6779274396499</v>
       </c>
       <c r="L40" t="n">
-        <v>213.0728182703727</v>
+        <v>213.0728182703728</v>
       </c>
       <c r="M40" t="n">
-        <v>235.149475584343</v>
+        <v>235.1494755843431</v>
       </c>
       <c r="N40" t="n">
         <v>235.0476581770936</v>
@@ -37719,7 +37719,7 @@
         <v>148.169049555085</v>
       </c>
       <c r="Q40" t="n">
-        <v>18.30671096229798</v>
+        <v>18.306710962298</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,25 +37780,25 @@
         <v>224.1092797284142</v>
       </c>
       <c r="K41" t="n">
-        <v>133.7007521391023</v>
+        <v>457.8461647102671</v>
       </c>
       <c r="L41" t="n">
-        <v>620.8033271354461</v>
+        <v>443.5722640634256</v>
       </c>
       <c r="M41" t="n">
-        <v>258.0240722971091</v>
+        <v>258.0240722971092</v>
       </c>
       <c r="N41" t="n">
-        <v>567.0874511143965</v>
+        <v>266.8595840466105</v>
       </c>
       <c r="O41" t="n">
-        <v>619.3181583750613</v>
+        <v>238.517977112316</v>
       </c>
       <c r="P41" t="n">
-        <v>168.7200793398051</v>
+        <v>490.5187875112878</v>
       </c>
       <c r="Q41" t="n">
-        <v>78.04241306744589</v>
+        <v>290.3574037273506</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37868,16 +37868,16 @@
         <v>674.2621117002074</v>
       </c>
       <c r="N42" t="n">
-        <v>486.721633078814</v>
+        <v>255.6939405553981</v>
       </c>
       <c r="O42" t="n">
-        <v>211.4657641677288</v>
+        <v>605.3280834444583</v>
       </c>
       <c r="P42" t="n">
         <v>150.1915691550063</v>
       </c>
       <c r="Q42" t="n">
-        <v>260.0529435288751</v>
+        <v>97.21831677556148</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37941,10 +37941,10 @@
         <v>122.6779274396499</v>
       </c>
       <c r="L43" t="n">
-        <v>213.0728182703727</v>
+        <v>213.0728182703728</v>
       </c>
       <c r="M43" t="n">
-        <v>235.149475584343</v>
+        <v>235.1494755843431</v>
       </c>
       <c r="N43" t="n">
         <v>235.0476581770936</v>
@@ -37956,7 +37956,7 @@
         <v>148.169049555085</v>
       </c>
       <c r="Q43" t="n">
-        <v>18.30671096229798</v>
+        <v>18.306710962298</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,28 +38014,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>55.01266455634041</v>
+        <v>224.1092797284142</v>
       </c>
       <c r="K44" t="n">
-        <v>457.846164710267</v>
+        <v>133.7007521391023</v>
       </c>
       <c r="L44" t="n">
-        <v>323.1420110101914</v>
+        <v>620.8033271354461</v>
       </c>
       <c r="M44" t="n">
-        <v>674.2621117002074</v>
+        <v>258.0240722971092</v>
       </c>
       <c r="N44" t="n">
-        <v>674.2621117002074</v>
+        <v>266.8595840466105</v>
       </c>
       <c r="O44" t="n">
-        <v>238.5179771123159</v>
+        <v>385.43232661146</v>
       </c>
       <c r="P44" t="n">
-        <v>168.7200793398051</v>
+        <v>490.5187875112878</v>
       </c>
       <c r="Q44" t="n">
-        <v>78.04241306744589</v>
+        <v>290.3574037273506</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38096,22 +38096,22 @@
         <v>139.8482752564992</v>
       </c>
       <c r="K45" t="n">
-        <v>366.9228186490254</v>
+        <v>102.4575816364468</v>
       </c>
       <c r="L45" t="n">
         <v>555.3976534758337</v>
       </c>
       <c r="M45" t="n">
-        <v>322.3617985711075</v>
+        <v>511.4274849468936</v>
       </c>
       <c r="N45" t="n">
-        <v>255.693940555398</v>
+        <v>255.6939405553981</v>
       </c>
       <c r="O45" t="n">
-        <v>211.4657641677288</v>
+        <v>605.3280834444583</v>
       </c>
       <c r="P45" t="n">
-        <v>468.6543377949434</v>
+        <v>150.1915691550063</v>
       </c>
       <c r="Q45" t="n">
         <v>260.0529435288751</v>
@@ -38178,10 +38178,10 @@
         <v>122.6779274396499</v>
       </c>
       <c r="L46" t="n">
-        <v>213.0728182703727</v>
+        <v>213.0728182703728</v>
       </c>
       <c r="M46" t="n">
-        <v>235.149475584343</v>
+        <v>235.1494755843431</v>
       </c>
       <c r="N46" t="n">
         <v>235.0476581770936</v>
@@ -38193,7 +38193,7 @@
         <v>148.169049555085</v>
       </c>
       <c r="Q46" t="n">
-        <v>18.30671096229798</v>
+        <v>18.306710962298</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
